--- a/bin/jupyter/uncertainty_summary_statistics.xlsx
+++ b/bin/jupyter/uncertainty_summary_statistics.xlsx
@@ -453,7 +453,256 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[4.89289904 5.23797595 4.75371232 ... 3.61611059 1.08221054 5.52261843]</t>
+          <t>[5.53135037e+00 4.35685955e+00 2.46472321e+00 4.36860358e+00
+ 7.49465579e-02 4.53585378e+00 2.54257737e+00 5.25196498e+00
+ 2.53963450e+00 3.31079375e+00 3.55871098e+00 4.67976867e+00
+ 2.42317861e+00 1.28053851e+00 2.45007567e+00 3.91838204e+00
+ 9.44630124e-01 1.26372777e+00 4.00182645e+00 5.42581218e+00
+ 3.68502317e+00 3.77295177e+00 3.14241664e+00 5.01544304e+00
+ 1.66302639e-01 2.79461971e+00 2.71526620e+00 2.80444107e+00
+ 2.25876727e+00 1.90237665e+00 6.99816417e-01 4.26121133e+00
+ 2.87890440e+00 2.75225548e+00 1.91604252e+00 5.59054349e+00
+ 4.90899845e+00 2.03443067e+00 4.84044104e+00 5.15611039e-01
+ 1.09736918e+00 8.82056079e-01 3.35506992e+00 2.21573155e+00
+ 2.53232063e+00 5.18462750e+00 7.25149843e-02 4.93073286e-01
+ 3.13294449e+00 2.39980405e+00 2.78155121e+00 4.89562422e+00
+ 3.54570451e+00 2.79902458e+00 9.82127568e-01 1.20263781e+00
+ 3.09289139e+00 4.51087424e+00 2.95592421e+00 3.37901662e+00
+ 4.81315672e+00 1.93889400e+00 2.60846522e+00 7.92171736e-01
+ 2.72930426e+00 1.22957429e+00 3.38607013e+00 2.66893178e+00
+ 5.22846398e+00 4.50481735e+00 3.65049901e+00 3.92441881e+00
+ 1.56031654e-01 2.76668255e-01 8.23769675e-01 3.51996418e+00
+ 5.55092273e+00 2.37826847e+00 4.14756658e+00 1.14709877e+00
+ 4.39532734e+00 1.19589105e+00 1.49067930e+00 1.30292989e+00
+ 3.39591439e+00 5.20458163e+00 5.17588259e+00 2.18479917e+00
+ 1.12213324e+00 2.60110621e+00 5.26812992e+00 2.70924481e+00
+ 1.81507932e+00 4.14428666e+00 1.68877907e+00 3.70593069e+00
+ 5.08643363e-01 2.40403422e-01 1.85114518e+00 2.05770927e+00
+ 5.05888385e+00 4.90259950e+00 3.60081938e+00 1.80432676e+00
+ 3.29377872e-01 4.06468124e+00 2.52746065e+00 3.24332726e+00
+ 1.53174103e+00 2.01316986e+00 5.33233033e-01 3.82522397e+00
+ 1.60565160e+00 1.91811545e+00 7.39478350e-01 5.24374733e+00
+ 1.90896830e-01 1.38718281e+00 3.43771444e-01 5.51616114e-01
+ 2.35142798e+00 2.17839985e-02 3.81599311e+00 1.42819381e+00
+ 5.51038104e+00 3.93209607e-01 1.59427784e-02 4.20090959e+00
+ 3.79564870e+00 1.71395378e+00 3.40902904e+00 3.29400858e+00
+ 1.30543258e+00 3.59207529e+00 4.68258076e+00 5.01929213e-01
+ 4.12782094e+00 4.16951673e+00 2.90749134e+00 2.82620276e+00
+ 3.52936996e+00 4.58992251e+00 5.32333739e+00 2.72337092e+00
+ 5.15825029e+00 2.04914219e+00 1.09028343e+00 1.53995516e+00
+ 3.10239386e-01 5.49853154e+00 4.52505978e+00 3.07192993e+00
+ 1.71758598e+00 6.03600480e-01 3.90465263e+00 4.00732299e+00
+ 4.18036855e+00 5.41597524e+00 1.87155986e+00 1.27047398e+00
+ 3.50822033e+00 4.18535874e+00 2.37221183e+00 1.59563424e+00
+ 3.74480472e+00 2.19774310e+00 5.60868994e+00 6.55628419e-01
+ 4.55603248e+00 5.28118850e+00 3.57393319e+00 1.45636249e+00
+ 3.02769613e+00 4.38106456e+00 3.66175513e+00 1.02613316e+00
+ 2.57665278e+00 2.58582497e+00 5.43054379e+00 8.10596546e-01
+ 5.18002798e+00 2.63228542e+00 4.48320567e+00 4.09578477e+00
+ 1.65375324e+00 3.65365560e+00 2.17697283e+00 1.21835309e+00
+ 3.96216645e+00 5.57456244e+00 7.24892436e-01 6.36360935e-01
+ 1.24942401e+00 5.36878794e-01 1.45154778e+00 3.69153437e+00
+ 2.47157575e+00 2.09022951e+00 3.31964668e+00 5.37784915e+00
+ 3.99179552e+00 1.57235406e+00 8.68613770e-01 2.19366472e-01
+ 1.27183573e-01 1.57756187e+00 3.45095513e+00 1.99290547e+00
+ 3.70063634e+00 4.64366128e+00 3.93284762e+00 5.04011868e+00
+ 1.30479468e-01 2.90014946e+00 1.73091870e+00 5.14526856e+00
+ 3.33926778e+00 8.92863862e-01 1.92629558e+00 4.24016637e+00
+ 3.72055196e-01 2.00606150e-01 1.51717031e+00 1.16659448e+00
+ 1.14389932e+00 1.79267405e+00 2.15760357e+00 4.51820649e+00
+ 4.10827538e+00 2.14303018e+00 3.62701826e+00 3.21342969e+00
+ 4.70952254e-01 4.54272395e+00 2.20335407e+00 1.74794642e+00
+ 2.05429005e-01 9.54222987e-01 2.61320660e-01 4.13458558e+00
+ 5.13422489e+00 3.18814422e+00 2.93432042e+00 1.89109967e+00
+ 5.29881849e+00 4.41176581e-01 4.61183005e+00 5.44657611e+00
+ 3.94996783e+00 2.61942207e+00 5.54571400e+00 5.30573256e+00
+ 1.63968702e+00 5.61052363e-01 3.47779952e+00 4.76821450e+00
+ 5.55468082e+00 2.68848728e+00 4.32182946e+00 3.45822265e+00
+ 2.73933948e-01 1.82030468e+00 2.39334046e+00 5.23418251e+00
+ 2.57981833e+00 4.74586410e-01 1.55625396e+00 2.24047098e+00
+ 8.16897318e-01 7.63088564e-01 3.39064819e+00 2.97643745e+00
+ 2.67439410e+00 1.42268528e-01 4.04063429e+00 2.74721783e+00
+ 3.98208658e+00 3.43965460e+00 4.96847656e+00 2.88475588e+00
+ 1.79541209e+00 4.07770852e-01 4.23528006e+00 2.21192786e+00
+ 1.77666419e+00 3.63713095e+00 4.43550976e+00 5.27313599e+00
+ 3.80429029e+00 3.46756514e+00 2.49295370e+00 4.70564885e+00
+ 4.74116129e+00 1.64889879e+00 1.61118904e+00 3.20433716e+00
+ 2.10942477e-01 3.91324679e+00 3.25878876e-01 2.78470512e+00
+ 4.97620223e-01 2.88879815e+00 2.04313235e+00 1.67119066e+00
+ 3.56762155e+00 3.57683292e+00 2.86026561e+00 1.88725610e+00
+ 1.77204593e+00 9.15853678e-01 3.51527673e+00 3.11660104e+00
+ 4.40810279e+00 5.85126774e-01 2.24367398e+00 5.38843115e+00
+ 2.75812234e+00 1.68109357e+00 3.75782314e+00 1.23805375e+00
+ 3.21935469e+00 2.85304224e+00 2.05413869e+00 3.85967568e+00
+ 5.46400356e+00 8.26618586e-01 1.95031436e+00 3.86716524e+00
+ 9.24756903e-01 2.82786746e+00 5.04666207e+00 6.69856233e-01
+ 9.60886849e-01 5.29217166e+00 4.31244781e+00 5.51752434e+00
+ 3.15081562e-02 4.32965604e+00 5.47363288e+00 2.86968067e+00
+ 3.16177124e+00 1.94082069e+00 2.83977417e+00 1.31385805e+00
+ 4.88904655e+00 1.16131650e+00 5.74638396e-01 2.69361981e+00
+ 2.93163483e+00 4.46245527e+00 4.91332349e+00 2.15815468e+00
+ 3.75044981e+00 2.45498158e+00 2.29965316e+00 8.80122237e-02
+ 1.93103675e+00 1.54874825e+00 6.76724703e-01 1.89810525e+00
+ 1.78505643e+00 6.22618149e-01 1.03650199e+00 2.39477196e+00
+ 1.90676114e+00 4.97675553e+00 2.51749315e+00 4.29622689e+00
+ 1.25618766e+00 1.44795758e+00 5.60012008e+00 3.78166641e+00
+ 1.58034085e-01 6.47305378e-02 2.70039373e+00 4.22342134e+00
+ 6.68447512e-01 4.49630041e+00 7.08603114e-01 3.41367017e-01
+ 3.16969038e+00 3.85352224e+00 2.68618622e+00 5.28604438e+00
+ 3.22027731e+00 2.12346055e+00 2.11201780e+00 5.35862679e+00
+ 4.94362489e+00 4.77271012e+00 3.73058343e+00 5.13865703e+00
+ 4.27751560e+00 2.03661565e+00 4.10668369e+00 4.53332257e+00
+ 5.38029790e+00 2.50557758e+00 4.88142454e-01 4.83412831e-02
+ 5.31337661e+00 3.01122248e+00 4.36578271e+00 1.86782770e+00
+ 1.33637703e+00 2.07828134e+00 5.97053477e-02 3.08379181e+00
+ 2.42001969e+00 7.79748784e-01 1.35991649e+00 2.65651454e+00
+ 1.28664763e+00 3.88135908e+00 1.37844550e-01 8.03390670e-02
+ 4.63067463e+00 2.38757999e+00 5.44174508e-01 1.62138859e+00
+ 3.84124871e+00 5.71665622e-01 1.69294555e+00 3.96817391e+00
+ 2.19072002e-01 4.30481724e+00 3.05942966e+00 4.87151360e+00
+ 2.64530752e+00 3.62017538e-01 2.99244578e+00 1.41097914e+00
+ 4.56184064e+00 1.52710824e+00 6.45536969e-01 1.74626715e+00
+ 7.42949130e-01 3.42253220e+00 5.47615307e+00 1.20495069e+00
+ 3.76440148e+00 2.09410085e+00 3.32603375e+00 5.05117776e+00
+ 3.58712290e+00 3.61821944e+00 7.73254232e-01 4.76498261e+00
+ 3.23575002e+00 1.58746739e+00 4.57539004e+00 5.65915455e-01
+ 1.08965656e+00 4.15398360e+00 3.30755708e+00 5.35409423e+00
+ 3.50636295e-01 4.84761289e+00 7.84971427e-01 2.70644014e+00
+ 4.41640660e+00 1.05668527e+00 5.30361981e+00 1.57930530e+00
+ 2.64422432e-01 5.60995112e+00 4.05909917e+00 4.56875750e+00
+ 2.77471023e+00 3.96409438e-01 2.95800406e+00 2.33761021e+00
+ 4.02637553e+00 2.76572992e+00 4.49057006e+00 3.33317397e-01
+ 3.19825024e+00 3.42265840e+00 1.59790639e+00 3.33427225e+00
+ 1.50318530e+00 2.87649613e+00 5.45295054e+00 2.25159131e+00
+ 2.64941799e+00 4.66985578e+00 1.15361648e+00 4.04915141e+00
+ 2.28800022e+00 3.37098257e+00 3.72016700e+00 1.31609294e+00
+ 1.06445684e+00 1.70761937e+00 3.07842530e+00 9.42892779e-01
+ 1.29144972e+00 5.34516432e+00 4.29109674e+00 3.96052051e+00
+ 5.80429506e-01 4.96150519e+00 1.44425605e+00 4.01895387e+00
+ 5.02700325e+00 2.78766068e+00 3.45026461e+00 2.15241580e+00
+ 3.86956864e-01 3.82793353e+00 3.78421920e+00 4.21048770e+00
+ 3.40403675e+00 8.83257520e-01 9.06667276e-01 4.37660311e+00
+ 1.76014303e+00 1.55802122e+00 2.63677306e+00 8.95368279e-01
+ 2.56874788e+00 3.88807613e+00 5.44915025e-02 2.96189047e+00
+ 5.22112529e+00 4.79742348e+00 4.69322565e+00 1.47847964e+00
+ 4.60651023e+00 5.23915193e-01 4.62352014e-01 1.37978777e+00
+ 1.05263693e+00 4.44467798e+00 4.45385661e+00 1.98518476e+00
+ 4.75916524e+00 1.32103111e+00 3.12367868e+00 1.49792680e+00
+ 1.86526789e+00 5.40668020e+00 2.19306194e+00 2.28514245e+00
+ 3.36016531e+00 1.17110318e-01 4.98197817e+00 4.83511264e+00
+ 5.11859383e+00 1.40872136e+00 9.10281270e-02 3.08857891e+00
+ 5.55837861e+00 3.54950977e+00 2.42976594e+00 1.40017190e+00
+ 4.30547769e+00 4.89318293e+00 1.01054031e+00 3.60676267e+00
+ 3.87366663e+00 3.19569218e+00 7.48625406e-01 1.82334922e+00
+ 2.29904496e-01 4.57186900e+00 1.72245107e-01 3.34607603e+00
+ 4.16861946e-01 3.64373398e+00 1.37247939e+00 1.87864382e+00
+ 2.52157460e+00 3.97619079e+00 2.54797424e+00 5.57774406e+00
+ 1.17230525e+00 4.71606716e+00 1.75428937e+00 2.02041894e+00
+ 2.11396956e+00 3.98577782e+00 3.49154948e+00 3.50254112e+00
+ 2.95587766e-01 9.89691380e-02 5.07994810e+00 5.39194407e+00
+ 8.57446668e-01 2.41072833e+00 5.09304728e+00 2.22109591e+00
+ 1.85508627e+00 4.87843057e+00 4.19481499e+00 5.05122156e-03
+ 1.81292549e-01 3.09920543e+00 3.72331195e+00 1.62689374e+00
+ 2.00904847e+00 5.40488451e+00 2.86580896e+00 9.32265274e-01
+ 4.33919096e+00 8.42178906e-01 3.61146076e+00 4.81979951e+00
+ 4.78811338e+00 5.09001085e+00 4.78906740e+00 4.33458596e+00
+ 1.41807271e+00 8.46273084e-01 4.04617281e+00 2.92153208e+00
+ 6.32458402e-01 1.29570074e+00 3.04574828e+00 2.23235809e+00
+ 4.48660482e+00 4.98890102e+00 4.82846423e+00 5.06469842e+00
+ 6.07746033e-01 1.12548306e+00 4.05538762e+00 1.23458599e+00
+ 4.46076828e+00 1.76940155e+00 5.97193406e-01 3.73324142e+00
+ 3.79029974e+00 4.41758328e+00 1.96711567e+00 3.67907331e-01
+ 1.08300166e+00 5.16543898e+00 1.95678653e+00 5.33843676e+00
+ 7.64699963e-01 1.84789946e+00 1.50859547e+00 2.32350236e+00
+ 6.96294011e-01 2.29721817e+00 1.43559197e+00 6.48116738e-01
+ 3.81318866e-01 1.56676329e+00 2.00417279e+00 2.94549180e+00
+ 4.06901721e+00 1.80230866e+00 2.45909870e+00 7.97842708e-01
+ 2.10084320e+00 2.06422231e+00 1.02271180e+00 4.13933581e+00
+ 3.89000700e+00 4.18940373e+00 2.48330245e+00 1.24561007e+00
+ 4.71343198e+00 1.26643444e+00 4.66349557e+00 4.67518928e+00
+ 5.43920851e+00 2.19034106e+00 6.89993898e-01 3.48785270e+00
+ 4.69956415e+00 2.02851277e+00 3.57713670e-01 3.43477994e+00
+ 2.96955244e+00 1.84274914e+00 3.46741377e+00 2.34707471e+00
+ 1.06994732e+00 1.96356581e+00 3.84896564e+00 2.66045160e+00
+ 5.58528410e+00 2.81634744e+00 1.53692967e+00 2.98678467e+00
+ 1.17763634e+00 4.93773252e+00 1.66173999e+00 1.46121941e+00
+ 5.42266377e+00 1.13269696e+00 2.06987656e+00 3.52748562e+00
+ 4.39059425e+00 4.80639780e+00 3.01833429e+00 3.66649017e+00
+ 9.35295306e-01 5.44183757e+00 5.39771827e+00 1.18495993e+00
+ 4.35550702e-01 2.13508044e+00 4.65068426e+00 1.39653497e+00
+ 6.26639781e-01 3.29058140e+00 1.36825216e+00 2.55469738e+00
+ 3.81004182e+00 4.63346114e+00 4.47660743e+00 2.43932007e+00
+ 1.09149963e-01 2.59306659e+00 3.12944656e+00 3.03730725e+00
+ 4.87745250e+00 3.25441534e+00 1.13965831e+00 1.99697655e+00
+ 1.04089664e+00 4.11888069e+00 4.25257410e+00 3.27763074e+00
+ 4.77971562e+00 5.46390769e-01 5.45858520e+00 4.54876701e+00
+ 4.42494948e+00 3.83482937e+00 3.55260298e+00 8.99360711e-01
+ 2.08008588e+00 2.55925368e+00 3.41483773e+00 1.10963155e+00
+ 3.01761401e+00 3.00082960e+00 5.32177324e+00 4.85996345e+00
+ 4.17560111e+00 4.21594492e+00 4.30082183e-01 5.19479515e-01
+ 3.74159952e+00 1.64651623e+00 1.36370674e+00 1.94533452e+00
+ 3.67318920e+00 1.73493537e+00 3.30249876e+00 2.31750399e+00
+ 3.94370604e+00 3.17189895e-01 4.60175656e-01 2.91419928e+00
+ 4.08518848e+00 5.34358400e+00 3.53720631e+00 1.11666143e+00
+ 8.32835953e-01 3.08409546e-01 1.35034547e+00 1.72416438e+00
+ 1.42275606e+00 3.18499980e+00 9.93095346e-01 5.21727046e+00
+ 1.39200128e+00 2.92423325e+00 5.20357496e+00 3.26750485e+00
+ 2.33180537e+00 2.84550661e-01 5.19253868e+00 5.59708992e+00
+ 3.28613616e+00 4.25495391e+00 2.34333868e+00 3.25978247e+00
+ 3.10420880e+00 4.95172376e+00 3.13674396e+00 4.44792316e+00
+ 3.63446209e+00 2.47831035e+00 7.15323888e-01 1.00164375e+00
+ 4.72342525e+00 5.49426210e+00 4.24854024e+00 4.00066706e+00
+ 5.01302961e+00 5.56714612e+00 9.84888427e-01 1.98367201e+00
+ 3.10976652e+00 5.03450269e+00 2.56293789e+00 2.26200869e+00
+ 3.03362932e+00 3.06461961e+00 4.86525716e+00 4.34678398e+00
+ 7.57682874e-01 5.36753400e+00 4.73627100e+00 4.14537410e-01
+ 3.90843332e+00 5.11375005e+00 4.61972863e+00 5.05693105e+00
+ 3.62038034e+00 2.27871348e+00 3.24161512e+00 3.95086661e+00
+ 3.27142307e+00 3.00115484e+00 2.22948454e+00 2.48822952e+00
+ 2.48342585e-01 4.61491111e+00 3.42903282e+00 2.81008617e+00
+ 1.04669807e+00 4.05789149e-02 4.85381797e+00 4.38530545e+00
+ 3.33023794e+00 1.61806784e+00 3.48287590e+00 4.52197424e+00
+ 9.71019471e-01 4.82350195e+00 4.94619382e+00 2.84590327e+00
+ 1.21137932e+00 1.18973560e+00 1.94986613e-01 4.46900006e+00
+ 5.12984824e+00 1.01647036e+00 4.99525464e+00 4.59795261e+00
+ 1.47291479e+00 5.48048363e+00 1.63207639e+00 2.10401072e+00
+ 3.17836618e+00 2.93935732e+00 4.03067289e+00 9.20100345e-01
+ 3.01525274e-01 4.72712564e+00 5.16030546e+00 4.96399678e+00
+ 5.51947595e+00 2.61457306e+00 1.74090150e+00 3.67761109e+00
+ 1.34285744e+00 2.16783313e+00 4.49489945e-01 4.99860605e+00
+ 4.63680348e+00 6.18078721e-03 2.76028081e+00 3.04849895e+00
+ 5.08579190e+00 7.26055402e-01 5.00516101e+00 4.92618166e+00
+ 2.49829790e+00 5.12011770e+00 1.03355352e+00 2.98313216e+00
+ 9.74818915e-01 4.07972269e+00 1.07483242e+00 1.48731400e+00
+ 4.78101515e-01 2.27174657e+00 4.12113480e+00 3.86555079e+00
+ 7.04586419e-01 1.34760839e+00 1.48483206e-01 5.25658089e+00
+ 4.26700074e-01 3.43971236e-02 1.52058613e+00 2.12721375e+00
+ 5.10161151e+00 4.26823051e+00 4.52372317e-01 3.81046618e+00
+ 1.67961164e+00 2.41159956e+00 2.36549099e+00 1.82793447e+00
+ 4.15940497e+00 2.13906556e+00 2.26659077e+00 5.32981490e+00
+ 2.54104211e-01 3.58328733e+00 4.27218870e+00 5.61622423e+00
+ 3.16719694e+00 2.62627055e+00 2.35983122e+00 1.19526432e-01
+ 4.40110863e+00 8.63417867e-01 6.59772603e-01 5.52929904e+00
+ 3.37343393e+00 4.74936456e+00 8.03676535e-01 5.10705330e+00
+ 1.22158050e+00 8.01624877e-01 4.01606520e+00 4.74485823e+00
+ 4.93205100e+00 4.69143723e+00 4.58073712e+00 3.15738903e+00
+ 5.15253316e+00 5.48749750e+00 2.60241412e+00 4.01515828e-01
+ 5.50232543e+00 2.73827227e+00 2.51469661e-02 2.50887613e+00
+ 2.73576072e+00 4.59561528e+00 4.80124512e+00 1.69885958e+00
+ 3.89837485e+00 5.02032198e+00 8.49021325e-01 4.92095345e+00
+ 5.07400681e+00 3.69561646e+00 2.43901574e+00 5.19367795e+00
+ 9.63483967e-01 1.32943726e+00 1.10387220e+00 1.97795487e+00
+ 3.22973086e+00 9.96403865e-01 4.09961065e+00 5.53798135e+00
+ 5.23925692e+00 3.76971427e+00 1.75837030e-01 4.65610113e+00
+ 3.71224654e+00 3.49721691e+00 4.23047014e+00 3.05361926e+00
+ 5.21059180e+00 2.68053094e+00 4.31809729e+00 1.83287196e+00
+ 4.43401605e+00 2.30928657e+00 4.08692667e+00 5.90569608e-01
+ 2.91143174e-01 6.85446037e-01 4.28773974e+00 2.83688548e+00
+ 2.31306232e+00 8.73148745e-01 2.17345717e+00 3.93714300e+00
+ 2.35128981e-01 2.89883787e+00 3.15025768e+00 3.36426271e+00
+ 4.35116992e+00 1.02019569e-01 2.36859566e+00 4.20418524e+00
+ 3.25246958e+00 5.26562489e+00 1.66848453e+00 6.16402639e-01
+ 2.46865855e-01 1.46683913e+00 7.32318419e-01 5.36610116e+00]</t>
         </is>
       </c>
     </row>
@@ -465,7 +714,256 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.84564231 4.6715896  2.04890751 ... 5.00641314 2.12528871 4.87524623]</t>
+          <t>[1.01054308e+00 1.21095969e-01 2.50905507e+00 8.16793715e-01
+ 5.81733457e+00 2.14630427e+00 2.95165019e+00 4.82596193e+00
+ 1.79633007e+00 5.00860472e+00 6.50955806e+00 9.94678359e-01
+ 3.09757264e+00 1.07721710e+00 7.63023520e+00 2.78535857e+00
+ 7.18673775e+00 1.62858267e-01 6.41493262e-01 1.52527428e+00
+ 2.40571260e-01 2.17466010e+00 5.89667865e+00 6.98035669e+00
+ 1.20575556e+00 3.17427924e+00 6.63803870e+00 4.21396797e-01
+ 6.45327401e+00 3.83492688e+00 4.32076651e+00 3.36310972e+00
+ 3.79414125e+00 6.04581804e+00 4.99073668e+00 1.42166391e+00
+ 2.23350879e+00 1.71741258e+00 6.23727549e+00 1.23128854e+00
+ 7.17252523e+00 3.69511805e+00 3.31429874e+00 6.15538101e+00
+ 1.02476226e+00 6.32671936e-01 1.13123353e+00 2.57086826e+00
+ 5.46176482e-01 1.80482630e+00 5.77823305e+00 5.86111795e+00
+ 5.28899363e+00 7.44889813e+00 5.27161592e+00 1.56861835e+00
+ 6.74841432e+00 4.66112503e+00 6.58943153e+00 4.02387963e+00
+ 1.62887597e+00 1.90239697e+00 2.35822013e+00 3.52633421e+00
+ 5.15167690e+00 3.01424492e+00 6.33545504e+00 6.47984315e+00
+ 6.90890408e+00 1.97342214e+00 7.31381147e+00 6.59848206e+00
+ 7.43001983e+00 5.01907671e+00 5.40974277e+00 3.28980506e+00
+ 6.20338251e+00 3.82169657e+00 8.03913824e-02 5.67872695e+00
+ 5.68781597e+00 4.39230360e+00 5.73458312e+00 2.58021220e+00
+ 1.09272928e+00 3.25092241e+00 2.07275978e-01 4.78094024e-01
+ 4.40275090e+00 1.13935453e+00 4.97973375e+00 1.92345337e+00
+ 2.45690833e+00 1.95053014e+00 3.70253217e+00 6.83425186e+00
+ 1.54567590e+00 5.14357912e+00 5.45347046e+00 3.56521273e+00
+ 1.66838495e+00 3.42023892e+00 3.40724432e+00 3.84942635e-01
+ 3.48145058e+00 6.52380798e+00 4.44250605e+00 2.25671814e+00
+ 2.42056725e+00 6.61795083e+00 1.83486722e+00 1.90827804e+00
+ 3.86953072e+00 7.14412285e+00 1.36078407e+00 2.20778467e+00
+ 6.76424159e+00 4.62024487e+00 5.11573946e+00 1.83254147e+00
+ 7.13687824e-01 3.62078763e+00 2.11951859e+00 7.32452414e+00
+ 6.19792234e+00 6.67433346e+00 4.36873993e+00 2.52037703e-01
+ 2.97464988e+00 4.03380781e+00 5.47475435e+00 3.90127249e-02
+ 1.27895772e+00 9.10250682e-01 4.86185274e+00 7.15537659e+00
+ 1.17797036e+00 2.48574428e+00 1.59506609e+00 5.88160028e+00
+ 7.29500834e+00 3.80282341e+00 3.76602859e+00 4.93405431e+00
+ 1.96523580e+00 7.49285218e+00 2.39934208e+00 7.02619799e+00
+ 1.88879380e+00 9.34386599e-01 4.72454170e+00 4.46023435e+00
+ 4.19566607e+00 1.69937969e+00 2.39077836e+00 3.94588745e+00
+ 5.16007401e-01 6.61636079e+00 6.78051580e+00 5.63272826e+00
+ 3.33417999e-01 3.00457613e+00 1.48946264e+00 7.40179206e+00
+ 7.22889986e+00 3.03160959e+00 6.69174056e+00 1.73513948e+00
+ 3.82862030e+00 3.84007503e+00 2.44712157e+00 4.79615084e+00
+ 1.14645975e-01 1.17036882e+00 6.45744144e+00 6.07044259e-01
+ 5.98403983e+00 6.72958868e+00 3.42491956e+00 3.56974974e+00
+ 4.19407361e+00 4.78891206e+00 6.58650618e+00 9.75949404e-01
+ 2.09621643e+00 4.48731095e+00 7.56573437e+00 5.57133745e+00
+ 1.29004964e+00 7.21494846e+00 8.26580685e-01 4.91778120e+00
+ 4.73190531e+00 5.26101581e-01 2.74836100e+00 4.20428835e+00
+ 4.92367064e+00 4.32003009e-01 2.01139590e+00 6.77682652e+00
+ 4.28519593e+00 5.55582320e+00 4.04387906e-01 1.21747369e+00
+ 4.49481767e+00 1.81380121e+00 1.75080184e+00 3.19252575e+00
+ 6.05825102e+00 3.71421403e+00 7.16099977e+00 5.54947091e+00
+ 1.48390330e-01 1.88168935e+00 4.76508948e+00 5.09513472e+00
+ 4.70165656e+00 4.47955517e-01 3.37818609e+00 2.62138239e+00
+ 4.22026131e+00 7.60043894e-02 4.54224316e-01 5.78630980e+00
+ 6.57407798e+00 7.20241813e+00 1.62219719e+00 6.60973065e+00
+ 2.99982080e-01 4.68432074e+00 7.59115867e-01 7.45409515e+00
+ 4.67495283e+00 7.41556681e+00 4.77521962e+00 5.04304061e+00
+ 7.13981666e+00 2.12675356e+00 2.90634093e+00 7.07437820e+00
+ 5.34672445e+00 7.73787422e+00 4.81873064e+00 2.33836067e+00
+ 6.21834048e+00 1.72378707e+00 2.30527427e+00 6.84174706e+00
+ 6.10562878e+00 3.34194675e+00 2.88988940e-01 6.28611891e+00
+ 6.87693240e-01 6.39199237e+00 3.19986034e+00 5.60922014e+00
+ 1.84748511e+00 7.57310271e+00 4.22650808e+00 4.15340078e+00
+ 1.50022750e+00 7.36413893e+00 3.69250063e-01 2.92893157e+00
+ 1.26701739e+00 3.33119260e+00 2.87437142e+00 1.35417229e+00
+ 6.43134196e+00 4.37544750e+00 1.97988268e+00 6.95447181e+00
+ 1.43335608e+00 1.65550322e+00 5.65017566e-01 6.11841716e+00
+ 6.88666843e+00 1.34250587e+00 2.98482383e+00 4.50170347e+00
+ 5.88961907e+00 5.29948689e+00 7.57903144e+00 3.97824083e+00
+ 6.76961287e+00 5.82746757e+00 7.25962190e+00 4.42232376e+00
+ 3.48989689e-01 2.84062374e+00 4.63931541e+00 2.56313568e+00
+ 6.21264394e+00 2.73198264e+00 3.87601012e+00 3.12674859e+00
+ 2.25226775e+00 7.33291994e+00 2.38735690e-01 5.44478636e+00
+ 2.59198004e+00 3.73150598e+00 6.67183666e+00 6.39785967e+00
+ 3.49822412e+00 7.49078928e+00 1.60709966e+00 5.35486708e+00
+ 5.64585130e+00 5.36747470e+00 7.13242297e+00 1.47666832e+00
+ 7.10707953e-01 5.23890876e+00 2.76562420e-01 4.88007329e+00
+ 5.71693036e+00 6.89590713e-01 8.92890990e-01 7.71003080e+00
+ 4.35601254e+00 6.31175467e+00 7.10600975e+00 1.78222135e+00
+ 4.60169899e+00 2.29624910e+00 2.27982729e+00 4.87429068e+00
+ 3.08552984e+00 1.48142239e+00 7.64623458e+00 2.71462435e+00
+ 3.04322671e+00 2.76408147e+00 1.53338912e+00 5.38995794e+00
+ 4.52496631e+00 5.61643717e+00 2.99080502e+00 3.89798672e+00
+ 2.85866069e+00 4.00981187e+00 3.85459277e+00 5.65092944e+00
+ 2.68073214e+00 2.96034026e+00 2.88089765e+00 5.22067586e+00
+ 1.24478003e+00 4.54364642e+00 6.12310181e+00 1.85916553e-01
+ 7.62237215e+00 2.43800452e+00 4.99354696e+00 5.47019766e+00
+ 2.74764751e+00 2.83506230e+00 2.19468246e+00 7.06324214e+00
+ 2.60498151e-01 5.90408639e+00 5.05197624e+00 4.52924160e+00
+ 4.89101536e+00 2.03825398e+00 1.36969477e+00 2.13403369e+00
+ 9.38319484e-01 2.69832705e+00 2.66832807e+00 2.28950899e+00
+ 5.38070138e+00 8.00529385e-01 6.13072717e+00 4.70799126e+00
+ 3.72021708e+00 7.21071131e+00 7.44361099e+00 6.62662474e+00
+ 7.29893978e+00 5.45869778e+00 7.54715806e+00 5.88305896e-01
+ 4.58463575e+00 6.24983142e+00 4.95465663e+00 4.74881630e+00
+ 8.67328396e-01 7.40759362e-01 7.47061571e+00 7.03118598e+00
+ 1.29823928e+00 2.69321876e+00 4.05553237e+00 3.26145311e+00
+ 9.18008305e-01 2.05603265e+00 6.47637195e+00 1.99772354e+00
+ 1.27015156e+00 6.50729952e+00 2.22594179e+00 4.12361628e+00
+ 5.51385786e+00 2.40574926e+00 7.60394052e+00 5.43921308e+00
+ 2.44155982e+00 5.59017381e+00 4.94600781e+00 6.98274802e-01
+ 1.85792529e+00 5.23159377e+00 2.02328857e+00 6.65335730e+00
+ 6.00976817e+00 7.72787511e+00 4.12618619e+00 1.76033642e+00
+ 6.33000843e+00 4.83097645e+00 6.28249769e+00 1.32620627e+00
+ 6.27579130e+00 5.13334112e+00 1.21234961e+00 4.10214223e+00
+ 7.04925274e+00 5.95700123e+00 5.06156840e+00 2.96750787e+00
+ 4.75244040e+00 2.61396347e+00 4.34517236e+00 6.41220680e+00
+ 2.17886447e+00 5.96243120e+00 2.31347350e+00 3.16124031e-01
+ 1.60371983e-01 6.49076357e+00 3.15685655e+00 5.26020136e+00
+ 1.67232496e+00 9.99222619e-01 3.07473646e+00 5.00687298e+00
+ 2.13815692e-01 2.27115165e+00 2.33557552e+00 2.93351550e+00
+ 9.50941738e-01 3.53008474e+00 7.69850882e+00 5.21273369e+00
+ 2.51580944e+00 1.68775360e+00 3.26118481e-01 5.42496733e+00
+ 5.02355118e+00 3.14764272e+00 2.20207925e+00 4.25612497e+00
+ 3.64560269e+00 1.05752854e+00 7.35081377e+00 1.68728729e+00
+ 6.73808042e+00 3.23207790e+00 7.53394552e-01 5.39146284e-02
+ 6.34720000e+00 2.24264550e-01 4.64897093e+00 3.45485327e+00
+ 4.57722290e+00 2.80223653e+00 3.23995055e-01 9.23882628e-02
+ 3.09448880e+00 1.39527045e+00 4.38744972e+00 4.29756135e+00
+ 7.08962495e+00 9.89827690e-01 5.42583139e+00 2.07908979e+00
+ 1.30776828e+00 6.11060019e+00 3.96591763e+00 6.43100766e-01
+ 7.72287808e+00 2.79026532e+00 4.59661074e+00 5.71055575e+00
+ 6.64452622e+00 5.17628491e+00 4.89593334e+00 7.01234762e+00
+ 5.66017502e+00 6.07369603e+00 5.12001411e+00 2.82135326e+00
+ 5.98127488e+00 2.31603220e+00 5.53236247e+00 2.50137146e+00
+ 5.25111999e+00 3.57890161e+00 4.56838494e+00 2.26644990e-01
+ 1.87305402e+00 7.20079959e-01 3.75510603e+00 3.59466515e+00
+ 4.30710884e+00 6.65658809e+00 7.19401481e+00 3.18412534e+00
+ 5.71577084e-01 2.24314633e+00 1.08839078e+00 6.08625757e+00
+ 6.38509948e+00 6.40831569e+00 4.35379409e-01 3.16973560e+00
+ 1.10280609e+00 2.65934576e+00 2.89661516e+00 7.61274889e+00
+ 5.31866968e+00 5.51847851e-01 9.22367663e-01 4.69502445e+00
+ 1.07369757e+00 5.91498804e+00 1.40336907e+00 6.82186630e+00
+ 1.12810853e+00 5.74227248e+00 3.62514277e+00 1.02459188e-01
+ 2.84942680e+00 5.93416188e+00 1.72870674e+00 3.97890769e+00
+ 5.19208852e+00 4.91279380e+00 3.73036269e+00 7.43090610e+00
+ 4.16931879e+00 7.67361595e+00 4.29038673e+00 8.35189193e-01
+ 6.49734009e+00 6.18973643e+00 4.45267080e+00 4.27234398e+00
+ 5.76537014e+00 6.96871595e+00 6.93443197e+00 5.37250107e+00
+ 3.91176269e+00 3.21993634e+00 6.32098786e+00 5.87325747e+00
+ 1.96575114e-02 7.87990287e-01 3.06060713e+00 7.25156274e+00
+ 2.46694064e+00 1.74595825e+00 4.90232975e+00 2.64305543e+00
+ 3.39743461e+00 6.03336343e-01 6.56705045e+00 1.92909002e+00
+ 2.92473269e+00 4.33172599e+00 5.83536780e+00 5.28319047e+00
+ 3.24730290e+00 1.33297168e+00 5.10415940e+00 5.15929453e+00
+ 3.50255314e+00 7.51917730e+00 7.66717124e+00 6.87060346e+00
+ 5.16368323e+00 3.11151577e+00 4.25830736e+00 2.07104380e+00
+ 6.99929120e+00 3.13891852e+00 3.07140241e+00 2.52917373e+00
+ 2.83010287e+00 1.59096053e+00 2.81113734e+00 4.56089252e+00
+ 7.23011438e+00 6.04165921e+00 4.41400010e+00 1.37275149e+00
+ 1.04777533e+00 1.65783423e+00 6.99114403e+00 2.37218750e+00
+ 8.10974666e-01 4.06761150e+00 4.17998189e+00 4.07546412e+00
+ 4.14752466e-01 7.66679055e-01 6.96188713e+00 7.58967245e+00
+ 5.94593115e+00 3.34911735e+00 3.53994856e+00 1.91679091e+00
+ 6.54303988e+00 2.67741802e+00 7.54223174e+00 1.18768414e+00
+ 5.18317171e+00 2.18903807e+00 3.43724117e+00 6.92127779e+00
+ 7.11680300e+00 6.14304238e+00 2.89231446e+00 7.31647579e+00
+ 7.53802379e+00 2.59931815e+00 4.98730512e-01 5.92314938e+00
+ 5.31230919e+00 3.81367266e+00 5.49995502e+00 7.46228984e+00
+ 3.29965878e+00 4.47584849e+00 2.55478695e+00 3.46406883e+00
+ 6.89932955e+00 5.85857512e+00 2.16175079e+00 6.72262984e+00
+ 6.09549586e+00 2.01285309e+00 4.62521076e+00 1.15970250e+00
+ 6.94633590e+00 3.05724571e+00 3.58976714e+00 4.33495100e+00
+ 4.96907847e+00 5.49023219e+00 5.08275893e+00 7.41364084e+00
+ 1.56345121e+00 6.36310226e+00 1.51686725e+00 2.10453298e+00
+ 7.60049548e+00 4.84949054e+00 2.14037129e+00 3.60846387e+00
+ 7.96407611e-01 3.48687175e+00 3.52043757e+00 1.77782072e+00
+ 7.12207240e+00 6.98165273e+00 4.47319076e+00 7.50566575e+00
+ 6.57491282e-01 3.44232551e-02 3.02061977e+00 4.84094180e+00
+ 4.55770736e+00 5.03637480e+00 1.94864249e+00 1.99228901e+00
+ 4.09043853e+00 3.74626997e+00 2.64928338e-01 1.01463593e+00
+ 3.32357038e+00 1.79326045e-01 8.49889146e-01 3.92658001e+00
+ 5.30135706e-01 1.39054821e+00 7.34367114e+00 3.43449011e+00
+ 3.40009600e+00 3.24112594e+00 1.31713051e+00 7.24304692e+00
+ 9.74404475e-01 1.57708947e+00 6.94060074e+00 4.51105100e+00
+ 2.64998800e+00 1.24739426e+00 6.84281241e+00 1.44492007e+00
+ 1.46234193e+00 6.14856803e+00 3.92278573e+00 1.82155519e+00
+ 2.40954289e+00 3.10914140e+00 6.29919752e+00 9.02304945e-01
+ 5.58611130e+00 3.98945607e+00 2.79688777e+00 6.55879674e+00
+ 3.99635765e+00 4.42783535e+00 7.26552697e+00 4.21073593e+00
+ 5.30244185e+00 5.41549774e+00 1.19297038e+00 5.99445500e+00
+ 6.02388552e+00 7.48091839e+00 1.25552432e+00 4.82537718e-01
+ 4.78157479e+00 3.21591374e+00 3.47111725e+00 2.03080367e+00
+ 1.16350104e+00 9.61020887e-02 4.31571005e+00 3.44671428e+00
+ 4.10402170e+00 7.35762341e+00 5.75259620e+00 6.54868671e+00
+ 7.04236733e+00 6.79012704e+00 6.02092427e+00 8.52163864e-01
+ 4.73825503e+00 4.11012488e+00 5.52212937e+00 5.38778274e-01
+ 4.27581734e+00 1.37814672e+00 1.85566651e+00 7.67961009e+00
+ 2.26495028e+00 7.37121344e+00 3.93346086e+00 7.09029502e+00
+ 6.53160203e+00 4.65792541e+00 6.85293558e+00 4.13332155e+00
+ 4.80284505e+00 4.70006705e-01 3.63481264e+00 6.42265151e+00
+ 5.59647265e+00 5.76969754e+00 4.62742240e-01 3.26661352e+00
+ 7.68873767e+00 6.46670324e+00 4.23453112e+00 6.68570290e+00
+ 3.07927637e-01 7.10217093e+00 3.89004236e+00 3.74163560e+00
+ 2.53555033e+00 6.25442072e+00 3.78472283e+00 5.56090738e+00
+ 5.80550309e-01 3.38557799e+00 7.27896304e+00 2.48207127e+00
+ 6.89168003e+00 5.74399666e+00 3.68867262e+00 5.84123406e+00
+ 2.36270400e+00 5.20402723e+00 3.03742453e+00 6.53868933e+00
+ 4.90981059e-03 4.00359565e+00 3.30891917e+00 6.80197742e+00
+ 1.50387755e+00 4.08305260e+00 2.53909073e+00 4.16128892e+00
+ 2.72257789e+00 3.63981636e+00 2.54988473e+00 3.98464735e-01
+ 3.36782384e+00 6.35540535e+00 2.62534753e+00 4.89917674e-01
+ 3.55533467e+00 7.65737232e+00 4.06107693e+00 5.97273112e+00
+ 1.58455165e+00 3.66318438e+00 3.95588597e+00 1.30886040e+00
+ 2.63296299e+00 1.11322792e+00 7.07310584e+00 2.82512512e-01
+ 6.68908447e-02 5.52185261e-02 3.51212046e+00 4.04443953e+00
+ 1.93993722e+00 7.43166358e-01 2.77393943e+00 1.70992987e+00
+ 6.26431950e+00 1.42059347e-01 5.80686341e+00 7.75085802e-01
+ 4.36196195e+00 3.76939692e+00 2.21826194e+00 5.66654699e+00
+ 6.00594442e+00 3.08771819e-02 4.80893988e+00 7.39487338e+00
+ 6.24088746e+00 4.85913403e+00 1.06714485e+00 5.85116430e+00
+ 7.28492501e+00 6.34570003e+00 6.81614256e+00 4.97178468e+00
+ 4.63416999e+00 7.27521433e+00 1.96326905e-01 5.62454820e+00
+ 3.21156511e+00 3.45882481e-01 5.12693196e+00 3.28703478e+00
+ 1.61044963e+00 3.88243586e+00 3.78706912e+00 6.80829615e+00
+ 6.23038240e+00 6.03343593e+00 1.46469016e+00 2.34803766e+00
+ 4.44864603e+00 5.48572417e+00 4.54283144e+00 3.59938709e+00
+ 6.86151572e+00 5.33147823e+00 2.08352950e+00 1.31738067e-01
+ 7.70720494e+00 1.87932849e+00 5.78991382e+00 2.86998791e+00
+ 1.22739685e+00 5.33312488e+00 1.52447823e+00 9.87994824e-03
+ 2.37998612e+00 5.63555071e+00 2.91157565e+00 4.14711922e+00
+ 3.95199740e+00 5.24139916e+00 4.24674627e+00 7.38010015e+00
+ 5.73317319e-01 2.06557783e+00 1.40923098e+00 2.47255224e+00
+ 7.38551454e+00 7.05243732e+00 1.63370646e+00 6.44736265e+00
+ 3.54801403e+00 6.60605005e-01 7.63691739e+00 1.14941862e+00
+ 8.84363112e-01 3.92405526e-01 1.29207597e-01 7.52498333e+00
+ 4.41144814e+00 3.15977132e+00 5.72503450e+00 6.17552037e+00
+ 4.17495751e+00 6.30233562e+00 6.91487378e+00 2.49940120e+00
+ 4.51687532e+00 8.66648396e-01 6.75536815e+00 6.08065411e+00
+ 4.67984433e+00 1.44897771e+00 5.91266562e+00 3.67876146e+00
+ 2.42469047e+00 7.01420630e+00 5.53981519e+00 2.15314879e+00
+ 6.43912012e+00 2.11225319e+00 3.67131747e+00 1.64323569e+00
+ 1.03875917e+00 1.03693870e+00 7.65472471e+00 5.50348280e+00
+ 4.72093957e+00 5.35892450e+00 1.98593541e+00 5.40143570e+00
+ 6.76307489e-01 2.73801184e+00 6.37712269e+00 1.77091221e-01
+ 5.70316398e+00 2.75869792e+00 1.78807599e+00 6.71472443e+00
+ 3.90635049e+00 7.55569559e+00 4.94421488e+00 2.94572824e+00
+ 3.00149603e+00 6.70328060e+00 1.11624193e+00 3.13033276e+00
+ 9.55649663e-01 6.18973553e-01 7.17621692e+00 3.27737532e+00
+ 3.75702996e-01 5.19423093e+00 5.08950626e+00 3.65698675e+00
+ 6.87340937e+00 6.16218222e+00 6.66182602e-01 4.02625221e+00
+ 6.25746976e-01 2.60206918e+00 7.34668856e-01 1.77189679e+00
+ 7.50806562e+00 5.26541217e+00 6.17820053e+00 2.32660394e+00
+ 5.06208475e+00 8.38123071e-01 5.94086455e+00 8.75492409e-01
+ 4.60617860e+00 5.05509233e-01 5.57432845e+00 5.07124065e+00
+ 5.80063927e+00 2.04567750e+00 6.69819478e+00 3.85319891e+00
+ 5.68892687e+00 6.06423217e+00 1.42955072e+00 2.70594261e+00
+ 1.54898620e+00 3.58465845e-01 3.35778498e+00 9.63489412e-01]</t>
         </is>
       </c>
     </row>
@@ -477,8 +975,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[42.28275617 40.69175093 46.87437854 ... 35.65030696 43.48043474
- 21.02234807]</t>
+          <t>[34.14276169 29.43920927 17.48333542 39.28666671 22.10642316 36.1524388
+ 44.03969734 14.72734757 20.86227776 38.56534327 16.29759821 42.57278746
+ 45.19114004 14.8584814  20.13904167 30.90092114 30.51077974 36.78379804
+ 28.56631671 17.1550921  16.07055622 12.88125371 43.36549345 13.85945122
+ 47.23883273 16.68005378 29.93869689 22.64776763 25.17810428 12.48000498
+ 26.0073947  26.79972272 43.67947996 39.84256849 46.57261127 32.07148079
+ 12.59095428 32.19051106 33.99133743 19.04667136 24.8872258  42.5137946
+ 22.80389368 15.20289599 14.58283596 41.11296699 23.01730426 13.92331136
+ 14.39498706 34.03854063 39.91698556 21.05164615 21.28070303 37.67112788
+ 38.04460194 46.72516998 35.11975407 37.18031886 28.75769395 32.58009174
+ 29.84199803 15.88571341 21.21905857 13.66503969 46.01540059 36.60468725
+ 46.24770215 24.32358425 27.02988346 37.44412418 36.3800796  24.505251
+ 38.90389729 44.61454146 26.16321462 30.58154152 17.11523586 20.6406567
+ 14.18683447 18.79552993 18.67710083 31.36097064 46.15867343 29.51829797
+ 38.26781089 15.50767337 22.25471417 25.31606737 41.68534444 40.92442556
+ 21.76946687 13.62148903 26.43212267 36.88540145 35.67733912 25.14176617
+ 44.89309803 36.76163642 40.44322791 25.86466024 12.48549995 13.78470195
+ 38.52509036 17.38197809 39.24636674 29.01132897 28.23510132 20.98747745
+ 19.33810263 25.50365136 25.32085556 17.78280576 40.59516505 36.0008797
+ 12.9414943  25.48075021 33.68927166 47.92063711 31.156083   33.19230579
+ 40.7981764  21.34903364 36.73313305 15.77018175 33.80847713 41.11638956
+ 46.45149343 14.31516923 12.96290565 40.42497583 35.53098865 28.27309565
+ 13.80056848 12.75875386 31.42085126 36.07572872 25.26805657 21.26192455
+ 24.84346613 21.89589389 26.54393386 19.92874594 37.30300768 32.53556434
+ 43.55292931 40.20545542 35.9754782  17.58764223 21.95145747 47.54570273
+ 46.7812985  30.03555613 31.21800522 29.6823622  38.70486579 14.50966844
+ 26.38957527 33.27019403 35.86769605 32.7461818  35.44206201 16.57742866
+ 37.39407237 36.88245526 16.77568579 21.8373978  24.27926734 30.55310271
+ 15.10159691 22.28325562 23.96057823 30.137327   37.13663839 27.99190722
+ 24.9613946  43.24742678 43.31578594 39.92577512 45.7452521  24.47107859
+ 42.00023129 26.85519941 20.15425762 17.80182597 22.37351049 19.00619789
+ 45.92793501 44.51788767 19.13220469 15.23362277 20.53395718 29.99708884
+ 24.6427575  14.33916585 25.21897916 37.76331882 38.17394207 32.2509495
+ 31.79893304 20.92188792 34.72140498 25.55871714 41.97730956 18.62345994
+ 29.77328684 23.74236602 16.64513354 30.44913957 37.68541077 22.86971583
+ 15.1550748  26.10025917 45.39923231 36.51331467 46.33409907 42.01844722
+ 47.20158977 26.88709703 33.49926026 44.64916348 46.50024787 18.75171858
+ 33.38291342 47.28442277 15.99792656 15.46190663 27.34964234 12.05037385
+ 37.92348628 27.52762761 36.01793477 18.49776493 34.0843733  13.26266009
+ 18.92717341 26.93142531 19.41493592 23.58983414 38.80382099 44.84107568
+ 24.19473475 45.42856373 25.05406122 15.04063747 42.14116368 30.7330471
+ 31.1272312  40.11703295 42.25381814 30.65601674 19.86682796 19.82662005
+ 45.33271819 17.71463085 24.75973626 47.47617577 39.76144584 28.34211925
+ 40.78470763 42.63278404 32.90239617 42.73777965 34.48809016 18.98520165
+ 27.70345027 43.40195649 42.27632273 46.50569484 26.32410998 35.3384296
+ 20.60366088 29.1928562  24.20295393 35.25446024 34.66723423 18.08297531
+ 30.29022634 34.29676666 38.03819164 31.01702511 36.4549632  45.89935451
+ 42.78531015 18.35714952 13.74278489 28.0621623  46.89612155 29.04817274
+ 23.37418105 43.15834026 27.31396605 42.38993881 34.41706291 16.54539668
+ 24.0595648  14.1416979  12.6737011  29.43280961 29.34786322 14.62288976
+ 20.70542438 18.33529472 44.66528    29.17951429 44.96194675 40.14416301
+ 14.55566863 45.66603395 23.35261916 38.08481858 43.08264961 22.69382346
+ 44.945155   12.30108668 12.14436791 17.41749824 40.64952156 19.24815897
+ 29.23860015 47.88699265 47.44076283 19.36424829 31.17920703 33.24419827
+ 37.21515374 19.43980976 42.99279286 45.67228384 12.55182974 19.75901165
+ 19.6678282  30.4140962  43.78224971 27.26424134 22.98198463 30.92105083
+ 44.06377509 46.31800877 24.12735822 41.27304642 14.09272546 27.86599056
+ 46.36636976 34.56836924 13.19242044 16.36284742 23.5305125  24.35731985
+ 25.94691353 15.61893006 42.75585832 13.08615758 41.00306653 20.89686864
+ 45.71306373 33.35782573 17.65485767 46.07562832 30.86351837 44.30700867
+ 41.72894613 31.58821527 32.01551532 34.98548737 19.56347926 33.09367255
+ 46.26984732 38.37161294 19.78981948 17.00453836 38.97013481 39.54992856
+ 40.07659091 15.37441123 47.67401291 39.08339565 26.96324489 40.25971012
+ 43.9299507  35.21634849 43.01201882 15.08275039 29.28172329 42.89845537
+ 24.54157157 46.91477547 22.92909737 40.54284286 27.69374223 36.17994733
+ 20.42399695 39.69327039 15.0117744  47.61699964 46.05524175 39.01988227
+ 25.5768359  13.00118289 29.73851648 29.11544116 29.82574819 36.0916512
+ 16.2130244  21.61008046 19.63871976 40.72603399 39.60676544 42.44190584
+ 45.62494467 23.09347913 40.63528185 13.30339411 13.31544527 31.90258553
+ 29.89388061 40.05832685 25.74855925 27.46176302 22.3352311  26.61453414
+ 44.56373437 31.33039231 26.46222803 45.79029896 21.02145558 24.696646
+ 31.60831996 45.11589403 44.15600445 23.81558196 32.71699268 19.9959099
+ 25.13422502 18.41268457 47.12356591 22.59820826 45.46243445 43.89199864
+ 22.77679242 29.36735829 44.7972795  40.22386211 20.28687282 21.16510584
+ 15.93126929 12.31086225 44.2955471  14.93950736 27.38821549 25.40241134
+ 34.62607395 40.68410341 21.43581117 47.78506417 34.38645538 34.95173462
+ 35.26292114 39.47961525 24.24416696 23.45890651 36.68814296 35.75233965
+ 34.46195306 41.84824249 38.31382806 23.13919793 43.53174655 41.15667407
+ 28.58390288 15.68339164 16.44131529 18.03034471 47.37919559 16.52270478
+ 43.030584   39.42888411 41.07730102 48.18401398 23.94127725 42.08253321
+ 26.5573434  33.88641741 15.63265394 45.3707574  21.55897315 36.2351491
+ 23.05832499 47.02237046 26.48336939 31.94476095 22.43631346 24.43015377
+ 30.33522726 33.23173325 30.96923085 14.26554162 13.5106478  23.26422292
+ 40.35027715 44.11555425 18.40507257 20.82317763 17.73915073 32.12001666
+ 31.27701758 42.16524275 13.56502993 46.8508257  32.78654057 14.82586148
+ 23.42202186 21.49733211 16.99403634 13.45744646 33.00115948 15.85981378
+ 21.87470378 27.44924292 17.57396299 19.49611206 14.16455963 40.48472937
+ 43.10323539 34.13706454 37.61543377 16.16491693 26.79850747 47.86885608
+ 38.77173769 12.10389157 31.50323707 36.27383794 31.86793171 23.14832772
+ 30.78241603 42.88080769 46.96964511 29.61790056 17.06709132 18.29457397
+ 35.16450855 16.92362923 17.31907094 19.73910465 34.83291077 31.73718201
+ 45.28207302 16.04549999 27.05358096 43.49504042 12.59661417 39.30836174
+ 29.08609851 41.46777608 19.16455535 30.0647325  35.05309929 43.69147561
+ 15.98131218 22.40266906 38.12614478 24.62742802 40.30120526 29.49079425
+ 41.20491355 39.85082619 37.08344735 22.48555747 14.94624361 25.44506187
+ 25.6364269  16.25601563 26.75336933 39.17505328 13.16616987 41.60370095
+ 33.63657776 27.90438239 43.19534084 43.81380089 18.58366243 46.62763533
+ 27.94135497 26.35450613 22.06832793 43.63764432 39.50257976 44.33219901
+ 36.84639564 47.81761205 30.75029692 22.54129254 35.30763495 20.47882813
+ 30.82658955 28.98782615 38.91913499 32.86372881 27.27805067 15.79328658
+ 35.79783673 15.4364315  13.96873948 13.94063405 39.65690216 36.43618572
+ 41.54119804 33.99820644 48.12149106 32.29651651 19.29344009 47.34290467
+ 28.15435183 14.23856441 18.70317507 12.7773909  17.25185065 12.84162184
+ 18.26158873 17.87826494 27.4986836  30.46903486 35.02578695 39.37486304
+ 25.82010755 17.2829759  36.20041826 25.78399987 16.93942697 35.88718404
+ 32.40536998 28.1812611  23.49784545 26.20063382 26.72563676 22.83363002
+ 28.67809085 45.84281616 19.22837963 26.12738134 36.66442537 39.99160013
+ 17.619638   20.31963431 24.00413029 32.95244073 40.96351836 30.21147786
+ 46.97842411 32.48380532 13.21451244 28.51243189 34.82060053 33.3209728
+ 13.84731454 41.31662073 36.32887131 22.63531425 14.65903148 25.85337141
+ 15.53725893 23.77507048 34.5717469  20.75399946 32.61944731 27.16191756
+ 23.69831447 37.17201797 33.04229754 37.81694261 45.25880364 19.06344539
+ 31.44815093 40.51582697 19.52350336 35.81622186 18.17592814 23.57589061
+ 18.20294628 12.89376483 28.80831456 13.46759232 24.1094101  43.43066075
+ 30.26859085 17.46905555 33.82380623 41.81483033 15.29358214 43.72747196
+ 31.67530741 44.82705781 38.6303655  17.99861298 42.32640209 21.71478478
+ 45.03941355 19.18216585 24.02013351 28.10756761 23.19587118 22.18242801
+ 31.07490814 41.01505062 40.01780995 15.16228728 13.58998745 45.2124362
+ 13.39305544 20.01849912 44.98719772 30.1665029  12.16496994 42.22792941
+ 23.22957767 35.38026737 24.99664302 23.31316376 46.57441382 12.42207137
+ 14.00578512 36.54504406 23.64961267 41.48849541 12.19992036 46.12180318
+ 44.21650712 44.41869351 31.53491691 42.83277997 12.35513221 24.77545653
+ 30.60752606 24.92697592 38.83949358 46.69657344 20.77216808 33.45900218
+ 35.59953284 12.24603059 37.3447659  47.06561142 39.80109149 35.71709575
+ 14.90278026 24.41002136 29.31584394 28.69167929 30.12300532 18.84876576
+ 28.48733022 28.07325527 25.3857242  20.34480634 20.46119411 40.36471196
+ 45.5919583  28.02662728 43.32910346 20.37203558 21.67947244 37.87265467
+ 33.73673586 25.08255863 16.60681129 48.02612986 34.27043149 19.58559614
+ 22.22010957 24.70616012 37.38519229 21.79087651 14.69978519 46.18369326
+ 40.87649449 18.14428903 39.40016098 34.78012369 28.4399659  17.19435315
+ 25.97920501 32.17464015 34.23360766 33.74345907 31.78687621 14.46109553
+ 30.34698322 34.32715225 38.35325288 20.05740971 22.51799523 44.74706179
+ 20.96354689 35.09894567 42.55017921 12.3811183  41.58139669 34.70697763
+ 43.58643722 31.97919467 34.20173953 37.03153098 36.95046582 37.51422643
+ 43.98143954 26.6434849  17.1099426  32.2867946  14.77484846 33.61459817
+ 41.35650847 32.38384747 33.52783178 18.08852634 15.40077317 41.38803395
+ 44.50544451 33.43923561 27.8155358  36.99856921 47.73667074 45.86439818
+ 24.58587362 47.65247185 15.31918166 32.61461875 27.78196915 45.15102327
+ 13.38516048 38.00521656 28.85511781 16.86920444 28.87798443 12.72800547
+ 20.09858415 14.50455525 47.96886024 28.35773994 31.84864502 46.82619901
+ 17.97099512 37.58321914 19.95600803 18.8429653  29.95806097 27.64758564
+ 12.63498234 38.21454099 21.11236003 26.25138279 35.9382216  25.71305197
+ 33.08420004 36.5666184  32.09795457 16.82685207 44.70830896 37.26354854
+ 38.42404947 45.06078309 45.97120428 33.58670678 43.85794012 16.1306633
+ 13.02693561 47.5666401  23.87181711 18.47641985 16.74208947 16.39052017
+ 22.94954867 32.82484011 18.64298378 42.63448286 27.6248769  38.50783531
+ 15.71483    41.79044848 24.85145382 44.24505213 27.11813634 31.68614076
+ 26.05800195 18.91358676 39.72546509 29.72009804 17.91713007 30.69737695
+ 38.98416995 21.54782824 47.71464509 44.46188207 19.68540485 17.36372964
+ 46.40921104 27.55949337 27.199459   48.01886173 42.94398039 44.0817907
+ 27.12497708 38.61304355 34.51486242 21.95995473 28.93347575 14.43021527
+ 43.26521583 31.46408822 47.0797567  20.67153636 37.95837158 35.43391187
+ 16.33490044 41.63494598 36.95947411 32.68421736 16.79225127 37.5649789
+ 33.15998149 25.66726003 33.95321741 33.8597142  22.02378163 47.50226077
+ 20.23978022 26.99033498 15.81235751 17.84329556 47.32121338 42.69684133
+ 45.55496236 46.6811475  42.10134435 29.5632775  14.07377754 21.37868119
+ 31.2881347  13.11837633 42.46158933 48.15741903 41.25381516 28.9016691
+ 41.93097895 34.89945733 20.56739699 38.46516482 41.73253872 26.28167347
+ 21.63809472 39.5954557  37.46552163 41.8860022  28.39993159 38.74789471
+ 32.91826922 22.72793868 21.30498863 32.35677526 21.47493425 28.31014296
+ 23.67940598 39.22227963 36.35345026 17.52133042 26.66352391 28.72010911
+ 44.38325723 21.14551268 40.83949435 47.17270238 29.62730794 48.05851364
+ 38.6803862  31.04834115 20.18393914 35.49029518 42.37886969 22.1453639
+ 22.06330406 34.88962953 37.8250964  18.52728629 16.19848391 23.85366422
+ 16.4758646  41.41693137 39.11485782 32.47037734 35.56306868 13.70219619
+ 45.50254049 38.25656605 43.93512221 15.56105644 25.93045774 27.74087523
+ 39.13244735 37.74838914 28.60763301 35.63114287]</t>
         </is>
       </c>
     </row>
@@ -490,8 +1153,256 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[ 648.73719728  836.34415522  305.60972388 ...  968.39436928 1054.99813599
-  348.47694695]</t>
+          <t>[7.26912773e+02 3.84074352e+02 1.50850539e+02 9.24800611e+02
+ 5.80650184e+02 9.37630927e+02 9.09145263e+01 4.52949031e+02
+ 9.02750306e+02 5.35892464e+02 3.82713883e+02 3.75304769e+02
+ 9.19616882e+02 1.03750931e+03 7.91308411e+01 8.79389980e+02
+ 3.59446308e+02 7.85761352e+02 3.53407099e+02 3.46454890e+02
+ 4.00153313e+02 7.51544512e+02 7.02444229e+02 2.85737330e+02
+ 4.51050655e+02 1.94150498e+02 1.24431966e+02 1.06704423e+03
+ 4.16983295e+02 7.04396094e+02 1.65634199e+02 4.20434148e+02
+ 2.92336196e+02 1.95693750e+02 2.45240674e+01 9.60575808e+02
+ 9.58307453e+02 3.30659459e+02 6.05698574e+02 1.58147855e+02
+ 4.43135691e+02 6.74739879e+02 7.55507760e+02 3.09233830e+01
+ 6.48848248e+02 1.07521158e+03 9.08727270e+02 2.04037762e+02
+ 4.73012815e+02 1.08719013e+03 1.22744414e+02 1.04035088e+03
+ 4.38709753e+02 7.76340674e+01 1.61150018e+02 1.02152523e+03
+ 6.73094477e+02 9.30177947e+02 6.90506765e+02 8.92809948e+02
+ 1.53680554e+02 1.01629653e+03 8.87503082e+02 5.22654583e+01
+ 9.36908724e+02 7.82864002e+02 5.52783661e+02 1.59278010e+02
+ 2.95810789e+02 1.05513923e+02 8.88313001e+02 8.19705576e+02
+ 4.69817518e+02 8.18689237e+02 4.32600395e+01 7.15153856e+00
+ 9.56348754e+02 9.87439778e+02 8.63733207e+02 1.04933890e+03
+ 4.35281797e+02 1.52181149e+02 3.58722848e+02 6.54565967e+02
+ 1.70901003e+01 7.06310804e+02 6.12849856e+02 9.80062823e+02
+ 2.16354405e+02 1.65163404e+02 1.10191036e+02 3.03901208e+02
+ 9.13732091e+02 4.34507029e+02 3.74441623e+02 1.27091875e+02
+ 6.18510091e+02 3.35265393e+01 7.53609051e+02 2.74925203e+02
+ 6.64964531e+02 2.44462430e+02 4.85191250e+02 3.25323437e+01
+ 1.93813766e+01 6.92933526e+02 7.56829337e+02 2.63433980e+02
+ 5.08581216e+02 3.90026336e+01 8.85185516e+02 8.89846878e+01
+ 5.79467227e+02 5.63327677e+02 5.34382901e+02 5.10690329e+02
+ 1.02017528e+03 8.26338677e+02 2.77487134e+02 1.05832273e+03
+ 2.04604483e+02 8.99422464e+02 3.83371354e+02 2.64754583e+02
+ 5.04324825e+02 7.32207933e+02 1.62473927e+02 1.05262186e+03
+ 7.98897622e+02 8.29703403e+02 3.06999561e+02 7.99533655e+02
+ 5.97296395e+02 3.47796446e+02 7.07458916e+02 1.04113306e+03
+ 2.23619872e+02 9.87887414e+02 6.49185430e+01 4.12943770e+02
+ 2.26681185e+02 9.79410105e+01 7.89403326e+02 3.66441507e+02
+ 1.32341465e+02 7.36376088e+02 2.42911533e+02 1.77111665e+02
+ 1.09213587e+02 2.99545781e+02 8.59559629e+02 7.55182163e+01
+ 7.71780380e+02 1.20921683e+01 7.96434694e+02 8.94515356e+01
+ 8.56613589e+02 2.46838653e+02 1.73254377e+02 2.96753083e+02
+ 3.45182256e+02 1.96117148e+02 4.64448717e+01 4.28034877e+02
+ 2.25051406e+02 8.73423743e+02 2.87368873e+02 2.84864812e+02
+ 9.29334760e+02 9.70710433e+02 9.33347541e+02 1.02526318e+03
+ 3.29176784e+02 5.55501226e+02 5.87833344e+02 1.08373547e+03
+ 9.12165951e+02 4.66378298e+02 3.10881578e+02 4.90854561e+02
+ 7.80729253e+02 6.65851312e+02 6.15446264e+02 9.20542861e+02
+ 3.92129941e+02 9.93413481e+02 6.85869510e+02 3.86665650e+02
+ 5.41144995e+01 9.06895774e+02 6.07830464e+02 9.03844890e+02
+ 2.07089238e+02 1.81170465e+01 2.88823914e+02 2.36541744e+02
+ 5.31969114e+02 5.46451451e+02 7.88284635e+02 3.63037033e+02
+ 2.15102489e+02 6.33147592e+02 8.44137158e+02 7.30296859e+02
+ 9.75330091e+02 4.01814083e+00 6.70691867e+02 1.57299913e+02
+ 1.21391279e+02 1.56102010e+02 1.07397929e+03 4.37089185e+02
+ 7.66275086e+02 7.13730306e+02 1.80417063e+02 3.16139681e+02
+ 8.72271318e+02 3.32581357e+02 6.25450550e+02 7.47824638e+02
+ 2.55312413e+02 9.98199296e+01 5.17840931e+02 8.43000834e+02
+ 8.38354032e+02 6.59733128e+02 4.63522744e+02 5.26997751e+02
+ 1.90550327e+02 8.37732810e+01 4.83317647e+02 9.52934404e+02
+ 3.36056925e+02 1.13030431e+02 7.70377500e+02 3.97691845e+02
+ 8.67318443e+02 6.27755994e+01 2.71128371e+00 4.77951358e+02
+ 3.18192897e+02 3.78841524e+02 1.31144995e+02 7.22477324e+02
+ 7.39265855e+02 7.04961883e+02 4.14544467e+02 6.20006598e+02
+ 9.43648310e+01 4.29466791e+02 7.79699650e+02 2.56012475e+02
+ 8.51236249e+02 4.09905277e+02 1.00715410e+03 2.51678114e+02
+ 5.25843890e+02 8.06062464e+02 1.25721688e+02 4.05996086e+01
+ 1.07088505e+03 5.48088842e+02 7.49141086e+02 8.94213764e+02
+ 4.74472404e+01 1.05470414e+03 4.89017377e+01 1.05878629e+03
+ 5.55923268e+02 1.11827584e+02 3.74009410e+02 1.78376176e+02
+ 7.75814251e+02 9.50932663e+02 9.46988432e+02 8.95583847e+02
+ 4.84381610e+02 1.29871498e+02 4.99064296e+02 2.59180464e+02
+ 5.01316445e+01 6.73705539e+02 9.41539704e+02 6.53566248e+02
+ 3.57218031e+02 2.39556570e+02 5.02638334e+02 4.17788895e+02
+ 8.83286555e+02 7.89815888e+02 7.74916253e+02 4.06610554e+02
+ 5.86740832e+02 8.85676656e+02 4.22071310e+02 3.33056106e+02
+ 5.70713641e+02 6.77837111e+02 2.77025876e+02 8.05619641e+02
+ 6.00240252e+02 6.81032483e+02 1.59895525e+02 7.45725577e+02
+ 2.06572406e+02 1.66597395e+02 1.33415428e+02 8.82516086e+02
+ 3.27864826e+02 6.21445900e+02 5.78454083e+02 4.31658166e+02
+ 4.01587881e+02 6.75783193e+02 5.67685163e+02 3.21783178e+02
+ 5.85063059e+02 9.18615095e+02 3.46660335e+01 4.76681143e+02
+ 1.71285955e+02 5.76717186e+02 1.03569402e+03 4.63070213e+02
+ 4.40806821e+02 2.67707484e+02 3.68491458e+02 1.05668098e+03
+ 7.19030274e+02 3.88115237e+02 9.16757217e+02 3.95457358e+02
+ 9.26351635e+02 9.34497906e+02 3.08010008e+02 4.01228171e+02
+ 4.11009950e+02 9.32149696e+02 8.08511461e+02 4.46978517e+02
+ 1.15518183e+01 4.07851168e+02 9.99227297e+02 9.75397622e+01
+ 6.23467655e+02 2.25896615e+02 3.50773765e+02 8.30353899e+02
+ 1.03941048e+03 4.95157533e+02 1.05558177e+03 2.73575363e+02
+ 4.40266126e+02 2.93611749e+02 1.18332872e+02 9.70160634e+02
+ 9.88862396e+02 5.60062298e+02 6.43050369e+02 5.51075779e+02
+ 3.93766756e+02 3.43565679e+02 9.82388816e+02 2.32743430e+02
+ 4.16444733e+02 6.90938287e+01 6.32029576e+02 5.82947985e+02
+ 8.72081176e+01 4.82870596e+02 8.16302138e+02 5.36783859e+02
+ 4.50140216e+02 5.83109209e+02 6.80063957e+02 7.94625989e+02
+ 4.94721994e+02 9.13927669e+01 7.91367015e+02 3.41765511e+02
+ 3.00668709e+02 5.53225303e+01 2.62456814e+02 4.79746181e+02
+ 4.88539657e+02 5.19221973e+02 7.65306565e+02 8.70256967e+02
+ 1.72638424e+02 1.08527455e+02 8.07635307e+02 1.01128574e+03
+ 5.69302324e+02 3.51870996e+02 1.89576886e+02 5.05059694e+02
+ 5.44311273e+02 1.03493168e+03 1.85224267e+02 1.78412346e+02
+ 5.93855944e+02 4.67261583e+02 8.97942269e+02 6.30043767e+02
+ 7.95568317e+02 3.72291735e+02 8.15562491e+02 3.65099541e+02
+ 6.61078551e+01 1.51908840e+01 8.39059276e+02 7.27757358e+02
+ 8.50184882e+02 6.60299540e+02 7.01521020e+01 8.52252100e+02
+ 8.39771178e+02 3.44414991e+02 6.84845406e+02 9.44924653e+00
+ 1.04545993e+03 5.30833827e+02 2.42108147e+02 2.01394523e+02
+ 6.96616756e+02 9.65226352e+02 3.36735159e+02 5.11499856e+01
+ 7.73086017e+02 6.98301361e+02 4.43794768e+02 5.30058460e+02
+ 1.04493230e+03 8.60113161e+01 6.13609078e+02 1.04273049e+03
+ 1.05098936e+03 3.53802190e+02 1.01301251e+03 5.22909377e+02
+ 8.45999469e+02 6.15923390e+02 7.41159782e+02 9.40212274e+02
+ 9.91955561e+02 6.58771512e+02 2.71550299e+02 2.20095899e+01
+ 8.10817931e+02 6.22353029e+02 5.45993077e+02 8.32248201e+01
+ 6.31293104e+02 5.63659458e+02 7.64427569e+02 8.57415807e+02
+ 5.06488876e+02 4.64800490e+02 8.33636874e+02 1.00085997e+02
+ 3.91188826e+02 3.61456484e+02 8.36166125e+02 5.91871755e+02
+ 2.49978010e+02 1.02073033e+03 5.90971131e+02 9.90676908e+02
+ 2.40911667e+02 3.02458932e+02 3.89979692e+02 5.00120893e+02
+ 5.94984916e+01 6.40032511e+01 4.75718201e+02 2.82577168e+02
+ 8.77218086e+02 1.98479216e+02 3.12577398e+02 9.96523836e+02
+ 4.25951985e+02 3.71185047e+02 8.49383935e+02 9.47566445e+02
+ 6.94724970e+02 1.14991876e+02 7.20741302e+02 6.34516989e+02
+ 4.93498253e+02 4.92484782e+02 4.73441724e+02 9.30540987e+01
+ 5.85574777e+02 5.16738144e+02 8.25188096e+02 7.08635033e+02
+ 1.06155087e+03 6.35681198e+02 9.73517073e+02 9.23894138e+02
+ 7.52648530e+02 8.60374578e+02 4.08258725e+02 8.28750902e+02
+ 9.72450294e+02 1.38348240e+02 3.67504789e+02 1.02881435e+03
+ 3.40951300e+02 5.86823227e+01 7.49981436e+02 7.35603480e+02
+ 8.04530734e+02 9.04701720e+02 2.17588469e+02 7.54266536e+02
+ 3.98554579e+02 9.45263252e+02 8.80297755e+02 5.65803036e+02
+ 6.62860991e+02 1.06457108e+03 7.22028353e+01 9.54233762e+02
+ 1.16769254e+02 3.81112075e+02 3.39927583e+02 5.41921582e+02
+ 8.12303015e+02 2.11590995e+02 5.95198606e+02 6.87885293e+02
+ 1.03007687e+03 1.08467845e+03 4.70051442e+02 6.98662722e+02
+ 4.61000475e+02 2.30789764e+02 2.48187792e+02 3.22775190e+02
+ 6.03606767e+02 6.09731947e+02 3.23258680e+02 3.17382101e+02
+ 2.29924946e+01 6.55364250e+02 1.07859727e+03 4.58514912e+02
+ 1.06932663e+02 2.76124018e+02 2.52380590e+02 1.08142654e+03
+ 1.01560140e+03 7.31716443e+02 6.10516623e+02 1.06201655e+03
+ 8.14603341e+02 1.20706776e+02 4.48206962e+02 1.00953288e+03
+ 2.58678565e+02 6.04238119e+02 5.13780444e+02 9.57951705e+02
+ 7.24324339e+02 7.18046403e+02 6.82140396e+02 9.65924268e+01
+ 1.05173930e+02 9.07649221e+02 4.14225875e+02 6.02454805e+02
+ 6.79757467e+02 4.24975545e+02 1.83061035e+02 7.42232395e+02
+ 8.66879837e+02 1.03130611e+03 5.74099539e+02 1.47510880e+02
+ 6.99398072e+02 7.14973604e+02 7.61815506e+02 8.24054788e+02
+ 4.61225767e+02 2.90956238e+02 9.49227449e+02 9.96017272e+02
+ 4.30567957e+02 5.71369599e+02 3.20066503e+02 7.84607172e+02
+ 7.03160227e+02 9.63913979e+02 1.52828693e+01 8.01848720e+01
+ 5.28892532e+02 3.01881187e+01 7.63297898e+02 1.07987292e+03
+ 1.00722002e+03 3.93724217e+02 1.84851050e+02 6.66983901e+02
+ 3.01642475e+02 7.29193405e+02 5.56959599e+02 3.68167300e+01
+ 5.15875163e+02 1.52679254e+02 4.04724877e+02 8.22602960e+02
+ 7.41565838e+01 5.15349938e+02 2.54221443e+02 8.32690124e+02
+ 1.63848418e+02 1.01286622e+02 3.95686614e+01 7.77354165e+02
+ 5.72786756e+02 2.47983781e+02 7.16548472e+02 5.97061209e+02
+ 9.38891667e+02 3.05767812e+02 1.00259866e+03 9.55494757e+02
+ 1.05295872e+03 6.95311120e+02 5.02346536e+02 2.66938966e+02
+ 1.55234903e+02 6.39892181e+02 9.84213152e+02 2.61406878e+02
+ 9.61556027e+02 5.48656591e+02 2.02617360e+02 5.74844441e+02
+ 4.42534286e+02 1.70069937e+02 9.10162889e+02 7.81881799e+02
+ 5.39644295e+02 9.35471719e+02 4.59874589e+02 9.21467880e+02
+ 6.56135435e+02 7.69430141e+02 7.17356977e+02 9.05931702e+02
+ 1.39529352e+02 1.88214295e+02 8.55339927e+02 1.02600793e+03
+ 5.55472778e+01 7.77977261e+02 2.00875002e+00 1.00374754e+03
+ 8.97070268e+02 8.76453272e+02 6.50273548e+02 9.66596672e+02
+ 1.08635119e+03 9.81224291e+02 1.02245571e+03 2.94702464e+02
+ 3.54622833e+02 1.00065756e+03 8.78125689e+02 1.35673450e+01
+ 4.11330132e+02 2.08549433e+02 4.98005442e+02 2.22725992e+02
+ 6.08868670e+02 5.65314415e+02 9.86134441e+02 6.92169499e+02
+ 1.04721278e+03 1.08226969e+03 6.36469170e+00 9.17570323e+02
+ 7.93235450e+02 3.14865736e+02 9.67239760e+02 2.38518391e+02
+ 8.93749355e+02 3.58826180e+01 9.68535707e+02 6.68015135e+02
+ 1.06310605e+03 2.67136483e+01 1.00465181e+03 4.23649510e+02
+ 5.24275893e+02 1.01894976e+03 1.87645953e+02 2.13513775e+02
+ 8.91650788e+02 5.39086532e+02 1.74181157e+02 5.58662621e+02
+ 7.46840714e+02 1.43585689e+02 1.97366670e+02 9.28033877e+02
+ 1.99373571e+02 6.64237870e+02 8.03019002e+02 3.04606176e+02
+ 2.34685576e+02 1.23913977e+02 9.49584496e+01 6.62106747e+02
+ 6.52254158e+02 5.61920709e+02 7.33413021e+01 1.46729981e+02
+ 4.33189234e+02 3.38337724e+02 1.06684907e+03 1.13934054e+02
+ 7.92635450e+02 2.83965395e+01 6.57187176e+02 8.69202802e+02
+ 8.09485200e+02 4.55032092e+02 8.46310717e+02 5.33246528e+02
+ 7.60605454e+02 7.68446459e+02 5.20224519e+02 5.61234967e+02
+ 8.74932568e+02 2.19122790e+02 6.48024028e+02 8.47519508e+02
+ 1.03323966e+03 2.89427036e+02 3.60446603e+02 1.06904386e+03
+ 6.42714733e+02 7.21826578e+02 1.03414330e+03 5.24454137e+00
+ 9.14781052e+02 8.89040284e+02 2.68872146e+02 1.03690587e+02
+ 8.31534096e+02 5.13202460e+02 6.44179088e+02 2.61021385e+02
+ 2.32986477e+02 5.98833583e+02 5.68468350e+02 3.13692261e+02
+ 1.28587301e+02 1.02733142e+03 9.00660395e+02 9.42752143e+02
+ 1.49216133e+02 9.23188905e+02 6.91694229e+02 2.83709716e+02
+ 1.06498462e+03 8.20310076e+02 1.01733993e+03 3.50223215e+02
+ 1.07000738e+03 2.35971983e+02 1.34737793e+02 5.37327927e+02
+ 1.37999572e+02 7.57538513e+02 7.37548986e+02 8.73305271e+02
+ 4.38313609e+02 7.86688618e+02 6.09069321e+01 7.09569913e+02
+ 2.12317108e+02 5.51651301e+02 1.01400637e+03 7.24832830e+02
+ 8.27184215e+02 6.38245700e+02 5.88458725e+02 5.54067373e+02
+ 4.56743087e+02 1.00071519e+03 5.00533234e+02 9.84514367e+00
+ 4.39235065e+01 1.67830480e+02 8.34292969e+02 2.45727789e+02
+ 8.54841250e+02 1.07720959e+03 1.01235413e+03 2.78778418e+01
+ 4.18915267e+02 5.07557754e+02 9.52620669e+02 7.07056689e+01
+ 4.27312852e+02 9.11441352e+02 3.69025127e+02 8.81228845e+02
+ 1.02459748e+03 6.19941720e+02 2.79026738e+02 9.98058673e+02
+ 1.41825300e+02 7.67906140e+02 2.86650415e+02 5.50282900e+02
+ 4.04017463e+02 7.13007559e+02 1.75307095e+02 5.24206851e+02
+ 6.25190221e+02 2.56991745e+02 6.72131733e+02 4.78703709e+02
+ 1.04363854e+03 3.63498448e+02 6.84027197e+01 3.25588184e+02
+ 6.46452877e+02 4.81295323e+02 2.27740007e+02 4.86577724e+02
+ 4.47960965e+02 3.80027794e+02 4.97037470e+02 4.52309206e+02
+ 9.79229294e+02 2.51167159e+01 4.17059935e+01 9.13550791e+02
+ 6.12064173e+02 2.80778262e+02 6.06135024e+02 9.26744609e+02
+ 7.43023359e+02 6.19347600e+01 9.49609190e+02 5.81050606e+02
+ 8.15341469e+01 7.97754771e+02 7.58196090e+02 1.40326171e+02
+ 5.93898020e+02 2.30523360e+02 5.28559858e+02 1.28266243e+02
+ 7.40557313e+02 6.89316225e+02 1.82020701e+02 1.05008925e+03
+ 3.80633635e+01 4.03038920e+02 5.10018019e+02 8.20307124e+01
+ 1.06038158e+03 1.86211061e+02 6.29511581e+02 8.13573929e+02
+ 1.42812495e+02 6.41491334e+02 8.02062688e+02 8.63016016e+02
+ 5.11834410e+02 3.96631611e+02 1.02938121e+03 6.77272435e+02
+ 3.77308839e+02 3.19046822e+02 9.44245698e+02 9.77039036e+02
+ 1.18675668e+02 8.41860755e+02 2.10683383e+02 7.25620659e+02
+ 9.76294359e+02 1.47955020e+02 2.70034380e+02 7.63035341e+01
+ 4.94553864e+01 3.85546453e+02 4.68795664e+02 2.72811844e+02
+ 7.83691934e+02 1.81414820e+02 6.83182990e+02 2.19976077e+02
+ 1.69289204e+02 7.10618836e+02 3.24926956e+02 2.02350279e+01
+ 6.45346553e+02 2.80212458e+02 2.00988718e+02 5.76390509e+02
+ 6.36550739e+02 3.70000143e+02 9.72294217e+02 8.58306293e+02
+ 4.74820121e+02 1.07197166e+03 1.07640956e+03 1.08062940e+03
+ 6.27129724e+02 7.34633160e+02 2.11079766e+01 8.90164834e+02
+ 1.93552849e+02 2.97611579e+02 3.09383205e+02 5.90114010e+02
+ 1.03801151e+03 2.29376686e+02 1.16243948e+02 7.33609428e+02
+ 6.39560728e+02 9.84373101e+02 1.45028723e+02 7.59663479e+02
+ 6.71176845e+01 9.94521650e+02 8.01079788e+02 3.56472997e+02
+ 9.78015860e+02 6.16782921e+02 4.71735068e+02 5.41614271e+02
+ 5.43463623e+02 2.16970190e+02 8.56803713e+00 8.61615729e+02
+ 8.65170763e+02 3.88471218e+02 2.98905919e+02 7.11819667e+02
+ 6.69819377e+02 5.22095979e+02 1.00581655e+03 2.37646255e+02
+ 3.11682640e+02 8.16869608e+02 9.32996932e+02 9.62990764e+02
+ 2.51241220e+02 5.67927906e+01 6.28574776e+02 4.45422501e+02
+ 6.50847570e+02 9.92414616e+02 3.26552123e+02 4.90195318e+02
+ 8.56133346e+01 6.86424227e+02 3.48752009e+02 4.31963029e+02
+ 1.00913352e+03 1.35160691e+02 8.53258448e+02 8.41931676e+02
+ 7.44486354e+02 8.37449931e+02 4.87442136e+02 8.21233596e+02
+ 4.51567722e+01 9.59826821e+02 8.68562170e+02 4.57622768e+02
+ 9.43512374e+02 3.38164588e+02 2.66318414e+02 7.01070342e+02
+ 1.92292261e+02 3.31679250e+02 6.68779756e-01 9.00390637e+02
+ 7.73508872e+02 4.21741092e+02 4.53915920e+02 1.36149005e+02
+ 3.34435504e+02 2.20834137e+02 1.07302964e+03 2.09698906e+02
+ 1.04789625e+03 6.01131462e+02 3.77479979e+02 1.02768946e+02]</t>
         </is>
       </c>
     </row>
@@ -503,7 +1414,173 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[4.01626836 4.83466053 1.74376288 ... 3.26951195 3.38455909 1.91549029]</t>
+          <t>[1.05804359 2.4075813  4.91164479 4.34559862 1.71903461 4.13961166
+ 4.84821423 4.93110234 4.95752314 4.12178574 2.10297779 4.3337613
+ 2.45299075 2.46497679 3.58700202 1.1751638  0.64398803 2.59058637
+ 2.2340233  3.27092793 3.35743724 3.25204715 3.67315933 2.52453973
+ 3.71884703 1.14095749 0.63831378 1.97295192 2.7742062  1.598977
+ 3.79059623 4.30389058 2.04223185 4.48082564 0.50209541 4.64625559
+ 1.3615562  4.67649954 1.31327437 2.45576452 1.41948542 3.478683
+ 1.28570806 4.325645   2.74497774 1.50504554 2.41924605 0.74843983
+ 0.91136516 3.39245356 4.57327349 4.26959778 3.20555976 0.89632933
+ 0.5452013  3.9148065  3.55641352 2.538652   2.1425604  3.99052925
+ 0.59855336 1.49516837 0.6417167  1.66745689 0.8980869  2.22434121
+ 2.79794768 1.57190371 4.76152285 3.72812033 2.22272268 3.42723382
+ 2.53071297 4.77852415 4.05542571 1.65301468 4.35866278 1.51170515
+ 1.30937896 2.54226948 2.16894982 0.80225167 1.74509248 1.43827275
+ 1.88824194 0.85100436 2.01154762 4.53275048 2.56229583 3.98128428
+ 4.92573991 1.63102773 3.02187688 1.81895538 3.82019103 4.10466829
+ 2.62879021 1.69759981 4.80938567 1.9976063  1.20525863 4.14997797
+ 1.31746079 0.6815968  3.40351564 1.43519644 3.16378184 2.49003104
+ 4.95161031 4.86836988 4.54340494 4.29978165 4.78864525 2.27462719
+ 3.16009574 1.15472509 3.24465118 2.3765772  1.98400648 0.94218907
+ 1.73339503 3.70159716 3.44901914 4.33851416 1.83602258 1.22239459
+ 2.78195992 2.60958104 1.27450399 4.44215862 1.04046702 2.9174021
+ 3.34719675 2.90436545 4.15520637 3.17123253 4.31197032 3.09690244
+ 2.40626856 1.05303295 3.74972468 0.9960539  2.44583312 0.6994921
+ 1.62740795 0.86928359 3.1071722  1.579486   4.56155608 3.2901678
+ 3.49989488 3.12835761 2.28718217 4.80209081 1.25148311 1.72073882
+ 3.01284597 3.20642024 2.25659801 0.75911846 2.38459234 0.75429148
+ 3.38815938 4.73082406 4.62881259 3.15333577 4.64035837 2.31506663
+ 2.03021118 1.61555925 2.71961665 1.13366369 2.46962828 2.65322209
+ 2.95700328 1.07311406 1.48921337 2.21316677 2.93346297 1.78647482
+ 2.1970717  4.72042407 0.58504874 2.58407853 1.16031252 1.19211246
+ 1.38514074 2.96865363 3.66517924 1.34628124 4.92419808 0.51955682
+ 2.49159057 0.78192254 2.91113809 2.98077682 2.97705837 0.76304624
+ 3.40945252 3.45843504 1.46228461 4.54575657 0.60099078 2.96406178
+ 1.43102881 1.9248933  3.3619036  4.36863421 3.7875806  2.76407449
+ 1.23369305 3.87427301 3.14887482 2.62226629 3.42930955 1.52266547
+ 0.98167627 2.73366833 2.07739564 4.16611322 1.91792534 3.25657239
+ 4.88808659 1.01304317 2.79110109 1.5578488  3.39879035 1.64166096
+ 3.87006799 0.76530412 2.98825155 4.51311221 2.4812616  0.97552621
+ 1.0138378  4.39693832 3.65173481 4.89718443 0.98508295 4.86193955
+ 4.46085884 1.06555604 2.10574143 3.18929988 1.99206563 4.11759781
+ 4.11418636 2.00692336 3.61974802 2.16416465 3.62953222 0.79225332
+ 0.54400682 4.29521254 4.12999475 4.39831511 3.94866943 4.75317762
+ 1.92158355 2.43759764 1.96389656 2.63211099 3.72587916 3.68611516
+ 4.09309243 3.51360929 2.0934635  3.06593318 3.5275716  0.66456963
+ 0.73905252 1.56766144 3.28171219 1.34391358 0.85810255 0.65726245
+ 3.17760649 2.57822994 3.84876422 2.14894459 3.76566546 2.95561758
+ 4.2786922  2.86098285 1.97617058 4.49781391 1.32273079 3.84542821
+ 0.62782196 0.72704071 4.38187289 4.05217321 2.5027364  2.80088361
+ 3.81501748 2.54736482 2.55139749 0.7368896  2.51062827 4.64900609
+ 3.14734388 1.86716832 4.48445592 4.0255401  4.38818052 4.16349014
+ 1.37957598 4.61353966 2.39814801 3.49045825 4.17814306 3.80154848
+ 2.34335034 2.64116053 2.20196836 3.69792663 2.13162042 0.77149993
+ 4.04546386 3.97714627 1.41025094 0.95543422 1.47260888 3.96204615
+ 1.647828   1.01930135 1.51672737 1.90100456 0.92705197 4.00256566
+ 2.06852364 2.11191204 4.39026758 1.72692534 0.71820591 3.82856132
+ 2.02079545 4.85690454 2.4141038  2.8232825  4.48732949 3.92178801
+ 1.63610016 1.730169   1.41139984 2.32410776 2.25332569 3.32000394
+ 2.24099591 1.16418556 0.85361031 4.29441557 2.58532182 4.31996611
+ 3.13586415 1.4054484  3.87841371 1.61712469 4.67014483 1.3661796
+ 4.91711656 2.18937695 4.20797027 4.62268931 4.12553341 1.64534018
+ 3.85413012 2.26234196 3.2628577  0.51332451 4.13620414 2.89875357
+ 4.83479209 4.76825877 2.61955341 3.72109479 2.38342684 1.80595728
+ 4.40960771 4.93966889 3.32663436 0.53431301 4.69352493 4.37903116
+ 1.39315774 3.71263598 4.58566407 2.68431182 3.55993413 2.87362046
+ 0.82087733 2.05399015 4.45955404 4.08172434 2.81254905 3.42012189
+ 2.71083349 0.70314174 2.45051433 2.82724223 2.00136948 1.61090638
+ 0.71950734 1.02748668 4.74070189 2.68916685 3.80407291 2.06462806
+ 4.77527348 3.86453844 4.23995568 4.5570438  1.75509857 4.20261134
+ 1.00888812 4.59505752 3.61246601 1.44758203 3.06925648 4.63782468
+ 3.0407817  4.57903027 2.47416036 2.53313191 1.55944243 0.80990365
+ 1.11142406 2.39167374 1.8824492  4.31339665 1.21174797 2.03454848
+ 0.57938117 3.46422119 2.30728481 4.44897052 3.23463381 4.3503634
+ 2.52087689 1.8542763  4.80473347 3.59008885 2.67095548 1.25904244
+ 1.10533733 2.51396172 3.5741945  1.54153162 3.53880232 4.02882349
+ 4.26804036 0.96595729 3.43640292 3.83420116 4.88400236 2.75152398
+ 1.80904138 3.9866255  2.18566315 3.05943578 1.35742167 0.55381304
+ 2.42277845 0.99083086 1.53393382 0.96019631 1.78399878 2.84125054
+ 2.81833782 3.56956076 1.17136034 1.55127039 1.93916266 3.03166057
+ 3.39425829 2.3102618  1.33038499 4.73413153 0.80556401 4.19750555
+ 0.87908819 3.84049703 2.66611338 0.65190051 3.41929106 0.65533344
+ 3.16723156 2.96993326 4.24820342 3.88186843 2.17792653 4.53866152
+ 2.23155825 4.82582096 4.71347389 0.83258934 3.10254874 3.73548605
+ 4.16087484 3.19400772 4.06584384 1.27177815 1.81586133 3.73877338
+ 2.75632045 4.22053066 1.56663006 3.89971719 2.93286301 2.02695284
+ 4.60867578 1.33639447 1.70434398 2.59720097 1.24059732 4.59900021
+ 2.99486657 2.88695594 2.86603974 1.48360006 4.07965489 3.2296796
+ 1.7524161  3.44558414 4.65974495 1.96565995 2.0722558  1.59752262
+ 4.18045625 3.8599314  1.80202421 0.694663   1.67165308 3.18679603
+ 4.0596207  0.82552673 1.71026769 2.92542996 2.70284213 3.31283152
+ 1.18546442 0.60634071 2.95024273 3.62282742 1.17946075 3.90540084
+ 3.59716024 4.60316016 1.87298194 1.12224804 4.93436701 3.2268855
+ 2.63599271 4.00817768 0.50800222 2.05006335 3.08532326 2.24971792
+ 4.24206541 0.63408949 3.55331186 4.28996914 4.32690798 2.34828332
+ 4.46957271 3.93874698 4.53078912 3.37217009 1.5868787  1.83371062
+ 2.72972163 3.29458328 3.51687328 1.67505982 2.39641396 4.18823856
+ 2.17938117 1.86482659 4.18704327 4.49187981 4.78505491 1.85831345
+ 3.46638937 1.26505253 3.79559165 4.35683217 4.8794384  3.94482773
+ 1.39355249 2.20732469 3.3053105  3.6801911  0.79753014 2.60137394
+ 2.94086859 3.30261275 3.82529247 4.51723828 1.33410168 2.49953815
+ 3.37003581 4.37228647 0.77669074 4.72642035 1.79553218 3.90824201
+ 4.66538599 1.46741936 3.60709371 3.99745612 2.90870389 1.08941577
+ 2.7464798  2.50604371 2.29218729 2.7607279  0.49869158 0.56385222
+ 0.52729468 2.32818338 1.39801848 2.1957314  1.4446874  3.74202872
+ 2.35934329 2.08707263 3.7562106  3.57869828 0.92297992 4.26077484
+ 1.53966491 1.29086118 3.88678611 2.89674246 2.72746735 2.67719015
+ 2.55793763 2.33140117 3.29734809 4.08684391 1.79218595 1.11802751
+ 2.27187071 1.08250797 0.52314542 1.77650918 4.36205182 0.78832924
+ 3.95341779 0.69065521 1.24851692 0.54015801 2.64335601 1.11493357
+ 1.62322199 2.8826174  1.97834298 2.69494928 0.88309451 1.76557933
+ 3.1189894  3.34143199 3.65517933 2.80746645 1.92906407 3.54214354
+ 3.47500778 4.70931465 2.11474045 1.04659417 3.08032086 4.46694339
+ 3.37794007 2.35446324 2.36912009 4.47731902 1.42334392 4.0980168
+ 1.38135212 0.55616353 3.03066112 0.7145267  3.44121328 1.13532487
+ 4.75766708 0.5758017  2.48315789 0.56941858 2.43937746 4.81786859
+ 2.06021382 1.66067877 1.07745401 4.45486608 4.50688787 3.70983906
+ 2.1179168  3.61161235 3.41170347 3.45126992 1.26363306 4.8369821
+ 4.01445837 4.23041751 2.68020428 4.8266915  4.28307505 3.11382907
+ 1.77224842 4.85768079 0.70633363 2.65022221 3.52558807 1.54641343
+ 3.50682386 3.08989154 4.8418841  3.08359383 1.15105104 4.21429509
+ 2.81313089 1.12892816 4.76530504 1.30502245 4.6542122  3.6939142
+ 1.08987124 3.64729461 2.24263234 1.45223996 4.43374847 0.81300571
+ 4.81650442 4.02249118 2.85569724 0.9504387  3.3388373  2.29526638
+ 1.23164686 3.5220913  2.46191619 2.28392102 1.69218277 3.7808272
+ 1.58172646 0.67300632 0.66962714 0.84509963 1.87744383 4.63028262
+ 3.00702911 3.92963959 4.66277584 3.65873036 4.9050129  4.59204269
+ 0.93574324 2.35141127 2.17219915 4.07176278 2.42794064 1.42655638
+ 1.37142662 0.93271138 1.84318018 2.32078368 2.36228322 0.97133903
+ 0.88578393 3.75424784 1.49791205 2.01595249 2.09452933 3.8894478
+ 4.43279884 2.83434849 3.35012811 1.68430531 4.44411805 3.35384822
+ 1.69433052 3.04923841 3.83575444 2.14686869 2.71851084 1.95737845
+ 1.45599739 2.21875969 3.13249878 1.98925064 3.56394421 0.61042283
+ 2.26406164 0.77877837 0.90366329 3.10823425 3.47071632 0.59316514
+ 1.2890371  1.93670166 4.23637778 0.72829254 4.27344535 3.89601704
+ 1.84521534 4.89031148 0.61823828 0.99275756 4.70070579 2.60734562
+ 3.92628072 2.84659291 3.32499375 1.82202973 2.84974856 4.14364558
+ 1.68279383 1.10032915 3.14173294 3.81069984 3.19899445 1.94362418
+ 1.03527715 4.68182922 3.30845292 3.05634563 4.3418158  0.86237207
+ 0.91571774 1.19246789 4.71615187 1.95569808 1.60467507 0.82782123
+ 3.24845917 1.06127296 3.95645348 4.90163191 2.0364133  3.27475969
+ 4.7049585  2.89314307 3.03684533 0.84029603 0.58736485 4.04368408
+ 1.06862749 1.77743703 2.61372771 1.82813809 1.20797224 3.38365239
+ 3.63554042 1.2152364  3.66592254 3.96867631 3.1820327  4.10873742
+ 4.41218799 4.52006756 3.69128262 0.96153453 2.99664498 3.58178733
+ 4.42029937 4.42485998 4.87396982 4.21897069 4.09946421 2.94606524
+ 2.12853792 0.51435158 2.78691964 4.94381637 1.7373171  0.83820449
+ 3.23748937 1.2431621  4.79655887 1.59338955 3.12498372 3.5450422
+ 4.07093717 1.74943533 2.8770757  4.79116503 1.66435452 2.56973346
+ 4.19605073 4.85066617 3.01739636 0.94442467 3.67548469 4.90681886
+ 1.04337501 0.68450104 1.09434497 4.50143852 2.13682778 1.90819726
+ 4.56330508 4.40268075 2.5632835  3.00150197 4.56735055 2.78063888
+ 1.50261871 2.15307899 2.08391812 1.30114268 4.55371679 1.76170995
+ 3.77177819 1.91354803 0.61305796 2.43004638 1.53006693 2.6979411
+ 2.16042107 3.63150648 3.77611042 1.89471655 1.94757141 4.68867212
+ 1.19775719 1.70723631 4.74329198 2.27794423 2.37265002 3.26626692
+ 2.04728071 4.03864445 3.21632485 3.50312184 4.17030203 4.68723288
+ 1.89280509 4.0339868  3.21267062 3.02576527 4.52511162 0.89242915
+ 2.77129254 1.27818429 4.25312656 0.74420624 3.22265983 1.22634858
+ 3.49364699 4.2242558  0.56046648 0.87171646 3.07491267 2.33795283
+ 1.34933524 3.78567986 2.87027995 3.99269987 2.73827562 2.57229904
+ 2.70840774 1.85169279 0.90847775 2.83915591 4.25809083 3.27716123
+ 2.29961847 4.41696574 2.92400241 1.02703733 1.47564702 3.91769248
+ 2.98632807 1.29905966 1.1463246  1.47838837 2.12176826 0.62470537
+ 4.74971303 0.67770252 3.33480043 3.48687112 1.5270235  1.16912958
+ 3.6010989  1.90487189 2.65998081 3.64210111 3.53408818 4.58466599
+ 4.01332385 4.61944939 1.0006325  4.94724266 3.05243747 3.7612305
+ 2.66534336 3.93752723 3.9724534  1.3680787 ]</t>
         </is>
       </c>
     </row>
@@ -515,7 +1592,173 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[4.85766651 4.56257915 3.19512116 ... 4.62026262 3.54904238 3.16149881]</t>
+          <t>[1.40118506 3.9137615  3.39250156 3.06547014 0.84655805 4.58824235
+ 1.75249583 4.10833041 0.61426717 3.58304568 5.41667186 4.89497573
+ 2.0327285  4.16528082 2.78915457 4.43051584 2.39806223 1.92024106
+ 2.65063254 3.96612858 1.3144697  4.8648284  2.57731819 3.02368015
+ 2.14276361 1.88430666 1.83010796 1.1833005  5.30668186 4.30140383
+ 4.14159831 5.01046862 4.27458782 1.39737851 2.31756891 2.43956956
+ 2.63204926 4.07127885 2.4372725  5.25696532 1.31311272 5.58704684
+ 1.67864606 4.97203262 2.51746493 1.22329258 3.3696808  5.28321182
+ 1.44475718 5.34643698 4.09742428 1.01475828 0.69657481 1.88853246
+ 3.83911819 2.06911766 1.40848729 4.67235047 2.97155409 1.42761746
+ 4.38646627 2.34041295 4.83680154 5.18799424 0.72937484 2.0478119
+ 5.68010194 1.80834501 4.62515085 4.79691275 3.22074258 5.09778157
+ 0.98261324 4.83983826 1.82145922 3.49663544 3.96516132 2.57381873
+ 5.59503542 4.08949393 5.45747306 3.0747375  3.86108056 5.42887438
+ 3.45696732 1.06254859 4.29922677 0.57186958 4.39661421 0.82218018
+ 1.41294832 0.59528141 2.83937534 3.19727835 3.40006363 5.48225875
+ 4.63272421 4.02287123 5.16609516 5.40796618 2.98681947 0.77830841
+ 1.88306276 3.52523856 4.22120837 4.54723586 2.52768409 1.76565299
+ 2.06144315 5.02196801 4.66072543 2.08205053 3.2827596  1.19521073
+ 2.96522992 3.32827458 4.43296167 1.82650938 2.86472485 4.76242965
+ 1.66142152 3.86999715 2.11119785 2.7208345  2.36353345 2.58581644
+ 0.81546541 2.19428482 4.27182819 3.23531583 2.75464047 1.3681126
+ 2.0275273  3.81828616 1.22797805 4.32275708 4.79844962 3.22332443
+ 3.11476315 2.53637063 2.38476436 1.29979855 2.79340447 1.10288461
+ 4.47279205 5.10159178 2.20344438 3.76897424 5.23551471 5.56538216
+ 4.88548724 3.66779519 3.23772618 0.60362186 0.98903751 4.10110202
+ 0.82037987 1.13101939 0.87425698 0.9594668  4.91297231 5.31110581
+ 1.2956066  1.53839995 2.22884331 2.85773702 5.22882554 5.42466322
+ 4.95445547 3.75221468 3.42837184 4.81492796 5.33404288 2.4076018
+ 0.88421389 3.20904073 4.69230217 5.19484402 2.23821346 4.07481234
+ 5.59224946 0.83388385 0.78671235 2.42490637 0.94913493 2.0107446
+ 5.46504931 3.53146169 4.11590715 1.13467009 2.29800229 3.40922424
+ 2.31159219 1.30705724 3.30921829 3.01871062 4.76859691 5.20812678
+ 4.00663646 3.69893149 1.28725537 1.96050244 1.71778723 3.7568117
+ 4.23834386 2.93444017 4.98101734 1.96918078 2.26675325 1.16094094
+ 2.70535695 0.66299279 3.55943905 0.91108435 5.26314831 5.57110554
+ 5.52275355 1.78606837 5.36594399 1.63747463 4.26567486 1.84029437
+ 1.01909016 5.37603379 0.80967257 0.57822096 2.84485804 4.68284988
+ 1.63365121 3.64918471 4.17986902 5.19919477 2.73488666 2.74815431
+ 4.48240542 5.5497067  4.16953321 5.6228631  2.66677213 3.05359707
+ 2.66955673 3.16371687 4.7340135  1.21578866 2.1200528  3.1269348
+ 1.07611886 2.30496255 3.1503426  4.15416271 0.77294492 4.46567481
+ 4.56114569 2.35260854 3.50223822 4.59986873 0.80576525 2.37660674
+ 4.18801719 2.76632655 5.49469884 4.85641109 0.82827978 5.33038484
+ 4.01678397 1.74152666 4.37057902 4.63773389 3.9919571  0.7660732
+ 1.46400843 4.54243607 4.57001213 0.88903588 1.51436845 3.47172028
+ 4.22812479 4.71868205 1.79993228 5.04361348 2.36777487 1.14144252
+ 5.17557267 0.76136931 2.35003207 1.50153337 4.68486758 2.96023301
+ 4.99506981 2.21807629 4.860081   1.77986734 5.62874842 4.53378624
+ 5.15087438 2.14551848 3.44193149 4.6059547  3.79040545 5.29285144
+ 3.38381183 5.35182133 1.86589823 1.28886677 1.35078407 2.56574061
+ 5.00068948 3.37277466 5.04001329 5.26534518 4.92189517 5.4018781
+ 4.6530123  5.57257919 3.97344346 4.78127411 1.09231461 1.53116745
+ 2.94847826 4.0436389  5.07042464 3.01689448 2.75972448 5.48528225
+ 1.34007198 4.04280104 2.03718262 2.72539112 1.7001886  3.19524003
+ 3.28835825 4.63855277 3.36020723 2.21305882 3.95912009 4.88179497
+ 3.52288215 3.15501516 3.31638198 2.15257949 5.5010954  0.91597577
+ 1.5289008  2.20978135 2.47345038 5.69580826 2.05683284 0.69940992
+ 2.65501236 4.55791221 5.66175861 2.26022123 2.41699317 2.54602362
+ 2.92078787 3.51952033 1.8319915  5.67063602 4.94887866 3.94860366
+ 5.51838605 1.25175095 2.31939568 4.89430996 3.14057353 2.27083894
+ 0.85035825 1.28031607 0.59005076 2.84879909 3.10414983 3.0057921
+ 4.13199556 5.53582214 0.68906518 3.43389655 2.48743902 1.71242358
+ 2.67902576 3.03559398 1.59607369 0.86212669 1.09708758 4.19972702
+ 1.37625951 2.18846639 2.614853   3.26539033 2.83744018 3.57635886
+ 5.65031035 5.63737885 5.61137071 1.15756916 1.48129467 3.09299766
+ 3.40589595 4.30848285 4.82885351 2.4721938  3.0698368  1.23440113
+ 4.26252622 2.55450666 5.16741027 2.10373597 4.58496283 5.41998631
+ 0.86922252 1.35525626 1.93267871 3.85249435 3.12387956 1.5192319
+ 3.25725983 1.03621731 1.55899122 0.58277032 3.04788543 4.08207058
+ 2.50490616 3.08087095 5.64345685 1.80374614 4.61327016 0.89688685
+ 3.02812158 5.29727292 1.00416256 4.33356332 0.86539087 2.53453715
+ 4.70796375 5.1323319  1.45170628 1.76313525 5.30024289 2.13259039
+ 5.5541979  1.95391439 3.44510934 3.69993691 3.90143794 1.02414362
+ 2.99570531 1.87179433 1.04467993 4.24464272 3.59071118 4.12637978
+ 5.54248102 3.46576183 0.79538384 4.55291594 3.18069251 2.44896987
+ 3.84315301 1.43328615 4.215392   2.80675671 4.45934411 3.4231738
+ 4.60939377 2.78249485 4.54009513 2.29129251 2.35765038 3.63990975
+ 0.97392303 0.99314997 3.21394816 2.0896013  3.13868023 3.81095132
+ 3.88268638 3.41394099 2.91146666 5.12402906 1.11605411 4.19252833
+ 0.62671838 1.60266534 4.40468624 5.02417015 1.22148184 1.05156794
+ 2.4793619  4.24927319 5.68701594 1.12589478 4.43869459 5.32527188
+ 2.93722266 3.77920729 0.83744743 0.99728518 2.02193523 4.76102812
+ 5.15616833 5.66430052 3.59589389 1.86209717 5.67706232 2.42744835
+ 2.71531859 3.56446024 3.30274059 4.70005613 2.79665874 1.1697544
+ 4.31198397 4.75236394 3.6542301  2.60956307 1.56427025 1.79296631
+ 1.74988447 3.1101811  5.51419676 3.76440881 0.75364902 1.0548584
+ 4.66868574 3.28960712 2.70082165 3.32093147 1.67072537 0.91964633
+ 1.94776086 3.4854616  2.6624314  4.28574705 3.09744211 1.59280338
+ 2.61927825 5.53809046 4.96641758 5.08688039 5.45225118 1.41712207
+ 2.55744156 3.98325059 1.64778314 4.85217716 1.67690124 2.25743032
+ 0.92816561 3.13007627 4.82209258 4.826763   2.88814484 4.01881702
+ 5.59840143 4.5234592  2.4937568  1.10776387 3.83106298 2.0849768
+ 3.7270615  3.99993046 4.03191622 1.2407563  0.64457424 3.1907289
+ 3.04632942 4.90188712 0.71702207 1.72159998 4.7462134  4.37516878
+ 5.61578491 2.17726542 4.49944841 1.94107281 0.65454623 3.54898221
+ 3.49003776 1.93614044 4.292164   4.39712257 2.60096114 3.1847548
+ 5.44769919 1.97738776 4.3772723  4.45122054 4.8122427  5.07976832
+ 5.06865966 1.47283824 5.12711475 5.31891415 5.57953644 2.76266571
+ 4.17434866 5.21924332 4.05147937 4.95804049 5.20695969 4.52881763
+ 1.38949027 0.67971311 4.12148887 2.22475305 5.50625592 4.40906001
+ 4.00802899 4.91994955 1.62123395 1.73763928 3.86534088 2.81579803
+ 3.37835986 3.36532158 2.24647417 3.53833856 1.20519341 0.70635674
+ 1.611919   1.78385234 1.89494392 4.62255061 1.98504384 2.5410557
+ 3.82419741 4.96617101 4.35515744 4.4546518  3.79576715 5.03654077
+ 1.91018721 3.721955   3.77165912 2.40425836 2.74274336 5.39307958
+ 4.74004933 3.67324499 5.01705213 1.98928685 1.26657387 4.78768849
+ 1.43935358 3.64347317 2.44322436 0.70907808 2.87799744 2.82989236
+ 3.7981457  4.13692631 4.15803784 5.47906447 1.95623527 1.08298825
+ 4.18291146 1.2433372  4.2061517  0.68785552 4.11160288 4.39046554
+ 1.32195384 0.97858077 4.35634663 1.08551073 3.20346994 1.48721443
+ 1.91616259 4.50549043 1.17923422 3.98949659 1.75765267 3.33331023
+ 2.86159787 1.47761619 3.31007373 1.77214564 1.19021269 3.65926714
+ 2.489958   4.32533524 1.70550005 2.88047746 5.23935369 3.68747955
+ 4.98606541 0.78149403 2.92470901 3.70506943 2.2802302  3.61874269
+ 1.49328661 1.56687336 3.68330009 0.63604886 3.06025618 5.04881554
+ 3.35295354 3.47465021 5.49501394 3.7845747  5.11603834 4.90808001
+ 0.74813234 2.1161903  5.21607226 3.51297493 5.69004633 2.18165397
+ 1.45560731 3.17011151 3.10876603 5.3820782  5.27108094 4.34249593
+ 3.83700603 5.22562103 4.42449778 2.80468754 1.20726707 1.38237993
+ 1.64277619 0.96274109 4.23622236 5.0553435  2.63391761 1.36170554
+ 4.2090796  4.49160766 2.90657299 5.35984453 1.99178434 5.16039401
+ 2.64291709 2.13730381 2.50954808 3.89410372 1.50498504 1.34556337
+ 0.7197777  5.0617482  4.34705377 4.05447326 5.56062986 2.71368732
+ 0.94095275 4.51166899 1.3360531  2.77876521 3.71607692 5.60342623
+ 4.93474983 3.92139023 3.94096984 5.18368713 4.69539885 3.92680677
+ 3.62457405 3.57050391 1.66681734 1.03958096 2.09531323 2.32797375
+ 1.26786971 1.85240304 2.67758254 4.98861105 3.97983403 1.55003854
+ 0.59617672 2.95247368 2.17110141 0.95273079 1.46085419 5.6278822
+ 1.06850308 3.47975601 1.90034726 3.15954573 3.34624823 2.04423344
+ 5.36950437 3.24504458 0.62056192 0.90447955 1.85618956 1.57496449
+ 1.65636168 1.25649736 2.82058132 1.84730439 2.24849859 5.47112206
+ 2.41511127 0.62593495 5.07611806 1.11377667 4.22326396 2.39520717
+ 3.38739217 3.2778501  3.08390812 4.05842852 3.69091755 2.98136559
+ 2.59360291 1.06117467 4.03381188 4.25735225 2.33434193 2.28784137
+ 4.14800949 4.51786288 4.50298159 1.81515636 2.68522196 3.71079387
+ 1.57806103 4.31982431 2.56537866 2.604807   3.74393401 4.59639964
+ 5.09135937 5.38829966 1.90407199 2.63844717 0.67510618 0.96759139
+ 3.8856291  0.65192421 4.47850177 4.93717599 2.16359808 2.20074959
+ 3.0077977  2.27610395 4.36398508 3.22948145 3.63265098 2.37288225
+ 5.43370832 4.6455165  5.10920696 2.9991819  1.27660032 5.40656943
+ 0.63671914 2.62279143 4.6548489  4.41500056 2.5030279  1.42663826
+ 5.11007713 5.46251984 0.75788568 1.02911642 2.68895537 5.24375936
+ 1.25895765 3.7323953  3.55122662 2.9693688  1.68670775 1.72651427
+ 4.44738759 5.14128488 2.97829382 2.943772   5.03286626 0.72878893
+ 3.93726903 3.73557318 0.93725521 5.65616249 2.10886795 2.89057427
+ 3.57411094 3.46262017 4.7439143  3.03754146 2.30133331 2.91589859
+ 2.46716219 2.1694152  3.45075587 2.0197196  4.3369924  3.60883313
+ 0.73759841 5.28846594 1.97049243 3.91529329 3.61535263 1.58266854
+ 2.01420096 4.84839089 1.37327737 1.62252972 2.77201892 1.14801417
+ 3.29524814 1.54505782 5.34540971 1.92572091 0.74359132 1.19764705
+ 3.33758328 3.26181829 0.80077165 3.2727928  5.27751737 5.52663162
+ 5.00342674 5.13715418 4.48695146 1.15102673 0.65897888 3.81590865
+ 1.60945483 4.72390647 2.69524476 2.06745913 1.59055835 4.42014263
+ 3.67698776 3.34192032 1.17328084 1.69530981 2.9010673  3.63108832
+ 3.17579759 3.6001293  2.87136057 5.17930121 5.64750829 3.5072903
+ 2.12591783 2.15562202 5.25098622 3.90882563 3.25020723 3.89655013
+ 0.60876088 3.54474965 3.80336222 1.62769091 4.80637741 4.77234886
+ 3.6019819  2.23481099 3.95184741 1.99866142 1.68915524 4.57294278
+ 3.74881336 1.0105701  4.94159983 4.72592213 5.33837299 2.52103888
+ 1.33033359 4.87622655 1.49792949 2.07349344 4.57727732 1.512321
+ 2.39111975 2.73262896 0.85283608 1.32465443 0.89909191 0.93373391
+ 2.58835965 2.89405949 2.82273394 2.4602755  4.92653541 5.37744755
+ 4.06562493 4.67605297 1.87524171 5.4432406  4.78341559 1.54310859
+ 2.33950582 4.2809753  1.39299376 3.87558538 2.00180842 4.87228011
+ 2.45423162 0.8799401  4.71321292 1.12152652 0.67209971 1.72942505
+ 3.93209354 3.8549798  4.08586084 3.4200328 ]</t>
         </is>
       </c>
     </row>
@@ -527,8 +1770,256 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[ 93.33826075  39.18345866 106.37248927 ... 121.45854323  30.22318065
- 119.51752364]</t>
+          <t>[7.64688751e+00 4.17175466e+01 3.76998927e+01 1.67806639e+01
+ 5.86927551e+01 1.28279337e+02 1.20685932e+02 1.10388117e+02
+ 4.73344822e+01 1.10978795e+02 1.24595727e+02 1.20582210e+02
+ 1.11839992e+02 2.53283084e+01 3.90935293e+01 7.68011292e+01
+ 1.07387256e+00 2.06031749e+01 2.85385203e+01 2.58606415e+01
+ 2.39852695e+01 5.32430784e+01 1.43422594e+02 2.81094684e+01
+ 1.23947680e+02 3.18904314e+01 4.59721240e+01 1.26049212e+02
+ 2.46599844e+01 1.20857909e+02 1.43290279e+02 1.37928551e+02
+ 2.28330484e+01 1.05541419e+02 3.33670222e+01 2.15216057e+01
+ 5.11525970e+01 9.32252890e+01 1.23542615e+02 1.21509244e+02
+ 1.38391282e+02 4.12505757e+01 3.35200491e+01 2.71817420e+01
+ 1.24407343e+02 1.47076691e+02 1.31158035e+02 1.31672923e+02
+ 1.11190784e+02 1.02327691e+02 6.35879027e+01 6.58226698e+01
+ 1.13840599e+02 1.35450272e+02 7.85353611e+01 1.47282612e+02
+ 1.39912386e+02 2.73484060e+01 1.33745437e+02 1.34256527e+02
+ 1.19302223e+02 7.33559438e+01 7.12456112e+01 1.81818583e+01
+ 1.05305014e+02 7.16952848e+01 9.87412044e+01 5.27675361e+01
+ 1.31117393e+00 8.30213469e+01 3.98523969e+01 3.08792852e+01
+ 3.73230661e+01 1.36489716e+02 5.47738578e+01 1.18834354e+02
+ 7.36711794e+01 3.11552040e+01 4.31182486e+01 3.24828858e+01
+ 1.62724552e+01 8.90408309e+01 1.05528455e+01 1.42994548e+02
+ 1.36031831e+02 1.04328001e+01 1.23349433e+01 9.36116862e+01
+ 9.19333588e+01 1.49190721e+02 7.96831057e+01 7.52892388e+01
+ 1.14418392e+02 7.14959690e+01 7.46010128e+01 1.44547469e+02
+ 3.02431558e+01 1.26226991e+02 1.36147208e+02 1.28904872e+02
+ 1.38063021e+01 9.83774704e+01 8.23140775e+01 1.40061380e+02
+ 1.43665107e+02 3.21293443e+01 4.09904065e+01 8.20679205e+01
+ 9.32908578e+01 4.65900077e+01 5.63055564e+01 1.25405585e+02
+ 1.83174346e+01 9.73415632e+01 3.44911506e+01 9.57342194e+01
+ 6.84699749e+01 7.58344334e+01 9.44296225e+01 8.04422723e+01
+ 8.08051209e+01 4.25231590e+01 1.05206876e+02 5.97217527e+01
+ 6.15208312e+01 9.49255420e+01 2.09065192e+01 8.13402874e+01
+ 4.73029234e+01 1.13074020e+02 6.46784970e+01 7.02084098e+01
+ 1.06150023e+02 5.64283657e+01 1.30847844e+02 1.49400456e+01
+ 9.45010500e+01 4.63828558e+01 2.97815486e+01 4.42217746e+01
+ 1.84566929e+01 1.57221169e+00 1.30102574e+02 6.38134657e+01
+ 9.01373440e+01 9.25766960e+00 1.31826080e+02 6.11399857e+01
+ 3.62174953e+01 6.17763001e+01 2.54319906e+01 7.92066028e+01
+ 5.44038032e+01 8.15731362e+01 1.20578070e+01 5.90495708e+01
+ 1.00954631e+02 8.79418966e+01 1.32212284e+02 3.57091009e+01
+ 8.70063803e+01 1.01979098e+02 6.27784721e+01 6.10109866e+01
+ 2.13967661e+01 1.15502524e+02 2.75487336e+01 3.12216758e+01
+ 1.03767461e+02 2.66320305e+01 1.03047847e+02 8.84864317e+01
+ 1.10187015e+02 1.28552394e+02 1.29887095e+02 2.78337736e+01
+ 7.20667145e+01 8.18611128e+01 1.77803442e+01 1.28437370e+02
+ 1.23250869e+02 1.25826458e+02 9.72522395e+01 7.11559574e+01
+ 8.57610625e+01 2.33812403e+01 5.00010881e+01 8.29401045e+01
+ 1.16778427e+02 7.53721359e+01 6.54169513e+01 1.38752795e+02
+ 7.31675487e+01 1.37664378e+02 1.48644996e+02 1.39716562e+02
+ 1.38265396e+02 1.39209615e+02 9.26037233e+01 2.11592276e+01
+ 1.43196481e+02 2.57212211e+01 1.16221920e+02 1.86130165e+01
+ 3.60355985e+01 1.16599421e+02 5.74293868e+00 5.59603376e+01
+ 1.08494584e+02 1.30569459e+02 1.07169153e+01 9.27372577e+01
+ 4.49891595e+00 5.15739240e+01 1.32538582e+02 7.22987935e+01
+ 9.56540645e+01 5.67461172e+01 1.41557821e+02 1.23077743e+02
+ 1.22836575e+02 2.60891300e+01 9.96354075e+01 1.27873976e+02
+ 5.51030150e+01 4.23227245e+01 7.98845616e+01 1.21335103e+02
+ 1.03161400e+02 1.08272761e+02 6.38960377e+01 8.25521863e+01
+ 1.19553419e+02 1.36582821e+02 7.80099106e+01 1.36840179e+02
+ 6.44652973e+00 1.01566300e+02 6.94475182e+01 9.95148759e+00
+ 8.53043004e+01 3.44477373e+01 1.56496199e+01 5.36826167e+01
+ 2.65484447e+01 1.33140073e+02 8.45868274e+01 4.06536952e+01
+ 6.03869141e+01 1.45712995e+02 1.32857325e+02 7.14210579e+01
+ 6.72729667e+01 3.58737776e+01 3.97300868e+01 8.78057926e+00
+ 1.22758932e+02 3.40422554e+01 1.19785043e+02 8.76004991e+01
+ 7.22243863e+01 9.35529394e+01 8.70801387e+01 4.41261071e+01
+ 3.19694523e+01 1.32973035e+02 5.34872765e+01 1.24656678e+02
+ 5.99306275e+01 5.41612855e+01 7.56117512e+01 7.94030452e+01
+ 8.97191109e+01 9.30069428e+01 5.85199105e+01 1.29664414e+02
+ 2.77129209e+01 1.07158562e+02 1.12726603e+02 8.46834532e+01
+ 7.31190103e+01 1.00627331e+02 1.40497460e+02 9.39828241e+01
+ 3.67026173e+01 1.31474676e+01 3.72129174e+01 1.18767708e+02
+ 1.35273513e+01 8.76219043e+01 1.17645106e+02 1.37198313e+02
+ 1.17987138e+01 8.03170485e+01 4.28907264e+00 7.43759285e+01
+ 9.52420728e+01 1.71540845e+01 6.25654679e+01 6.50622639e+01
+ 8.91477121e+01 3.31086424e+01 4.82951457e+01 5.24598420e+01
+ 8.24563522e+01 7.49218547e-01 6.89123191e+01 5.55511127e+01
+ 1.47806926e+02 1.60105480e+01 7.78442158e+01 1.42004018e+02
+ 1.21938398e+02 7.84891023e+01 3.35720375e+00 1.48205621e+01
+ 1.37323702e+02 4.14954798e+01 1.31415882e+02 8.01781167e+00
+ 8.41769992e+01 3.78898791e+01 9.01872100e+01 1.15325281e+02
+ 3.99149137e+00 4.00048579e+01 7.01026313e-01 8.52107375e+01
+ 7.28925071e+01 1.65651184e+01 5.80743590e+01 1.03924496e+02
+ 1.10874575e+02 1.32404800e+02 1.46711556e+02 1.06084747e+02
+ 9.84468052e+00 1.07809351e+02 4.79311021e+01 6.52995104e+01
+ 1.08120456e+02 7.45976504e+00 1.41894156e+02 2.31059232e+00
+ 2.88890445e+01 1.19430003e+02 1.44873160e+02 1.21224140e+02
+ 1.35728132e+02 1.45867512e+02 3.31594012e+01 1.01841421e+02
+ 3.81484424e+01 1.47938674e+02 1.31518394e+02 8.63142348e+01
+ 9.29291919e+01 4.21842837e+01 6.55584557e+01 2.84659497e+01
+ 8.61795679e+01 1.00285267e+02 6.50866836e+01 6.91995466e+01
+ 4.98763942e+01 1.23709126e+02 2.19430488e+01 9.54628861e+01
+ 6.32524727e+01 6.33450061e+01 8.73114591e+01 1.22079417e+02
+ 4.01989494e+01 9.42879230e+01 7.60729526e+01 2.43314249e+01
+ 5.19682762e+01 1.06477972e+02 1.08790493e+02 8.65374528e+01
+ 1.47631401e+02 1.02684926e+02 8.13262818e+01 1.18082925e+02
+ 1.48270345e+02 5.89227946e+01 1.19225168e+02 5.93167140e+01
+ 1.14955459e+02 4.81010761e+01 1.37034999e+02 4.39078593e+01
+ 1.12003548e+02 4.68587792e+01 8.59177613e+01 1.41088689e+02
+ 9.07603312e+00 1.12387762e+02 1.42448045e+02 1.29920950e+01
+ 6.70765908e+01 1.30974962e+02 6.22755787e+01 6.78851723e+01
+ 1.14028378e+02 5.72693636e+01 1.33357973e+02 2.35417576e+01
+ 8.88443441e+01 1.02417600e+01 7.00834381e+01 5.39206960e+01
+ 1.33994435e+02 2.91116332e+01 1.39031820e+02 3.36250029e+01
+ 5.82484662e+01 3.78666729e+00 9.98237064e+01 1.29096577e+02
+ 3.16106783e+01 1.39106547e+01 1.21118121e+02 3.26253980e+01
+ 1.42234381e+02 4.97611956e+01 1.25628939e+01 9.58927654e+00
+ 4.95628933e+01 6.07197628e+01 6.86172145e+01 1.15615879e+02
+ 2.42239233e+01 6.48512156e+01 1.12559630e+02 9.60913636e+01
+ 8.06041647e+00 6.64574575e+01 1.46434598e+02 4.28891801e+01
+ 3.43216715e+01 2.51139073e+01 1.03302532e+02 1.26840519e+02
+ 1.37229494e+01 1.49030046e+02 8.54417931e+00 1.09683447e+02
+ 3.23096418e+01 2.63735468e+01 4.35604259e+01 2.31678787e+01
+ 6.62230399e+01 1.80045158e+01 1.27948974e+01 3.51905652e+01
+ 1.10100736e+02 2.19026956e+01 1.25120996e+02 1.20176100e+02
+ 7.70636805e+01 1.16411234e+01 7.35050510e+01 5.49994563e+01
+ 4.25524227e+01 8.35977105e+01 7.72286361e+01 4.88910788e+01
+ 1.47493570e+02 4.76244716e+01 6.43985553e+01 7.57933085e+01
+ 1.87232491e+01 5.07115560e+01 1.40786585e+02 5.02087527e+01
+ 1.16928203e+02 3.85525019e+01 2.20192241e+00 1.17403213e+02
+ 4.93228054e+01 1.05031420e+02 1.34550509e+02 1.26262146e+02
+ 4.61365175e+01 3.70480593e+01 4.36914648e+01 1.27650225e+02
+ 5.04057979e+01 7.19016756e+01 1.44212061e+02 1.07317063e+02
+ 2.47984927e+01 1.33569715e+02 6.86879610e+01 1.16027022e+02
+ 5.42270818e+00 1.98759403e+01 1.34857228e+02 7.25557080e+01
+ 1.12318653e+02 5.44836898e+01 4.27369170e+01 1.35003043e+02
+ 1.61631441e+01 6.05426562e+01 1.47595871e-01 9.59600543e+01
+ 5.73221566e+01 9.16960680e+01 5.61871380e+01 4.70496996e+01
+ 9.52080508e+01 8.21606301e+01 8.53816464e+01 5.17104825e+01
+ 1.44429115e+02 7.08222704e+00 1.00021818e+02 1.46799364e+01
+ 9.88294094e+01 1.32060767e+02 1.32249348e+02 1.40377548e+02
+ 1.14722813e+01 1.70377136e+00 1.21785489e+02 2.25968546e+01
+ 5.94357019e+00 1.40869525e+01 7.66536390e+01 1.14879407e+02
+ 9.47704928e+00 2.36851406e+01 1.43743807e+02 6.41760836e+01
+ 7.76466099e+01 5.54431350e+01 6.74193008e+01 1.41220177e+02
+ 1.26512096e+02 4.07886946e+01 6.18291402e+01 1.14312880e+02
+ 1.32745845e+02 1.01232846e+02 1.29457072e+02 1.02384495e+02
+ 1.38567364e+02 4.75807311e+00 5.94262672e+01 3.13099226e+00
+ 3.59870078e+00 9.68719070e+01 1.20028991e+02 6.95757197e+01
+ 2.29300855e+01 9.41520175e+01 2.96974261e+01 1.24773587e+02
+ 8.43939659e+01 6.66665018e+01 4.48858913e+01 9.82654039e+01
+ 9.22360835e+01 9.93550744e+01 1.38839162e+02 6.98837043e+01
+ 4.11646161e+01 4.90399556e+00 1.07936547e+01 9.37473766e+01
+ 1.06738178e+02 5.96314844e+01 1.95571972e+01 1.34094085e+02
+ 9.13235641e+01 9.15454209e+01 9.76630354e-01 3.27169364e+01
+ 1.57241644e+01 2.13100959e+01 1.20946641e+02 5.18307397e+01
+ 3.87726990e+01 3.94709406e+01 7.41045820e+01 1.17110268e+02
+ 5.09520067e+01 9.10913416e+01 1.05869243e+02 7.81316101e+01
+ 1.34648922e+02 9.24763463e+01 1.17455212e+02 1.94582330e+01
+ 2.62077000e+01 6.90769200e+01 1.05405137e+02 5.78889571e+01
+ 2.71264719e+01 1.00303561e+02 7.51267483e+01 8.38477567e+01
+ 4.51259262e+01 1.10482685e+02 4.43247091e+00 6.93355792e+01
+ 1.35888051e+02 9.14822569e+01 2.79956897e+01 9.76010247e+01
+ 1.02599098e+02 1.13197458e+02 7.64784153e+01 8.87500934e+01
+ 6.32959327e+00 9.99679861e+01 8.32871356e+01 9.92165913e+01
+ 1.11403529e+02 7.90001106e+01 1.18247775e+02 2.83126127e+01
+ 1.10168629e+01 3.52647770e+01 5.33213995e+01 4.58393790e+01
+ 7.24998414e+00 8.28193026e+01 1.42728508e+02 1.48117708e+02
+ 7.62414373e+01 1.67047574e+01 9.79395483e+01 9.68215091e+01
+ 8.82441732e+00 9.18048545e+01 4.50544383e+01 5.11738892e+00
+ 4.58419691e-01 2.30021296e+01 9.90315895e+01 1.48901934e+02
+ 5.23351322e+01 7.88337767e+01 3.91554000e+01 6.63719567e+01
+ 1.88663855e+01 1.27016466e+02 4.98683022e+00 1.15904657e+02
+ 5.69165240e+01 3.46563239e+01 1.04265554e+02 2.98691830e+01
+ 6.69162117e+01 5.28363450e+01 4.92217036e+01 3.50437999e+01
+ 4.18779746e+01 7.73604896e+01 1.21636076e+02 6.60188613e+01
+ 8.37177695e+00 9.20895193e+01 1.35075920e+02 1.37475674e+02
+ 1.24256709e+02 2.93632510e+01 1.90767134e+01 1.29245819e+02
+ 7.46972261e+00 1.47417975e+02 1.04714685e+02 1.40713306e+02
+ 6.00901066e+00 1.52248332e+01 1.43953593e+02 5.42528776e+01
+ 3.38757772e+01 2.03389081e+01 3.84109034e+01 1.46616519e+02
+ 8.48411127e+01 8.66992501e+01 4.45542059e+01 1.27919616e+02
+ 9.09375878e+01 3.49804219e+00 8.35690295e+01 1.30235458e+02
+ 7.07753673e+01 1.20345420e+02 8.05909529e+01 5.53065984e+01
+ 8.00824908e+01 8.10659727e+01 9.48536387e+01 1.02966829e+02
+ 2.55390960e+01 5.59327204e+00 5.91000941e+01 3.53758297e+01
+ 4.95464927e+01 1.45394261e+02 1.77099823e+01 1.01130118e+02
+ 3.63320913e+01 1.28745337e+02 1.17935784e+02 1.25657937e+02
+ 4.31924507e+01 1.17775383e+02 6.81195735e+01 5.80145126e+01
+ 1.26956346e+02 3.14879808e+01 1.18515179e+02 6.79736147e+01
+ 3.48755106e+01 7.93794657e+01 5.07858082e+01 1.08030262e+02
+ 1.29587346e+01 8.24207961e+00 1.35130553e+00 3.39517245e+01
+ 8.94446618e+01 6.15899013e+00 5.66769464e+01 6.74920596e+01
+ 8.99490656e+01 1.55127238e+01 4.56338078e+01 1.69636165e+01
+ 8.96138322e+01 1.09040984e+02 4.55068284e+01 7.47895759e+01
+ 1.03644600e+02 1.33592453e+02 4.78747605e+01 1.00820612e+02
+ 1.25277742e+02 1.51251529e+01 4.10858578e+00 1.29090634e+02
+ 7.04751614e+01 8.85200207e+01 5.38289827e+01 2.69745001e+01
+ 1.45196548e+02 1.96575615e+00 1.24145781e+02 1.06339374e+02
+ 3.67367983e+01 7.38811435e+01 1.22497072e+02 5.77500017e+01
+ 9.03430504e+01 1.01734920e+02 2.24146021e+01 1.04861248e+02
+ 9.70154896e+01 4.20261683e+01 1.00546663e+02 1.08583411e+02
+ 1.91313643e+01 6.83185805e+01 1.01447252e+02 2.55492732e+00
+ 1.23792161e+02 1.80864345e+00 8.17658650e+01 2.44860891e+01
+ 5.60485714e+01 1.30651638e+02 1.31223555e+02 1.14601268e+02
+ 1.05775479e+02 2.87361336e+01 4.38017979e+01 1.35257152e+02
+ 2.89605021e+01 1.11093843e+02 9.66594017e+01 3.69320886e+01
+ 1.13413668e+01 4.43243580e+01 1.09269740e+02 4.85874509e+01
+ 1.18449871e+02 1.48571547e+02 3.09028942e+01 3.03601881e+01
+ 1.04046754e+02 8.56620251e+01 1.24527413e+01 9.94350942e+01
+ 2.21190907e+01 3.28624056e+01 1.58993392e+01 1.09965288e+02
+ 7.47225858e+01 1.15787563e+02 4.89680869e+01 2.97118044e+00
+ 1.41687538e+02 2.17001281e+01 8.40293889e+01 1.06858167e+02
+ 1.36922497e+02 2.43787093e+00 8.93256498e+01 1.35581574e+02
+ 1.41392445e+02 3.64992099e+01 9.85851154e+01 4.65327958e+01
+ 1.44717421e+02 6.12889708e+01 9.81326030e+01 1.04364398e+02
+ 5.46785780e+01 1.03530390e+02 2.23565123e+01 1.27255946e+02
+ 4.57929857e+01 9.07789659e+01 1.22233498e+02 6.45817953e+01
+ 4.03388190e+01 1.46891050e+02 6.23891386e+01 7.03909790e+01
+ 1.42089155e+02 6.84969288e+00 1.25790363e+02 2.05438781e+01
+ 1.04523988e+02 2.94431816e+01 7.83129822e+01 3.56098074e+01
+ 4.86990374e+01 6.08244106e+01 1.44917622e+02 1.09704593e+02
+ 1.30378237e+02 8.50504905e+01 1.18974490e+02 5.29932650e+01
+ 7.38596523e+01 6.02487614e+01 1.44092994e+02 8.71750141e+01
+ 3.89023330e+01 1.48369772e+02 1.08927783e+02 1.13672151e+02
+ 1.45524642e+02 5.12784635e+01 8.68454445e+01 6.29787352e+01
+ 1.45275983e+02 6.00963878e+01 6.19579165e+01 6.97464123e+01
+ 1.39553931e+02 3.79456347e+01 6.57780816e+01 5.21620680e+01
+ 3.17363725e+01 2.68418433e+01 3.00652882e+01 8.81040270e+01
+ 4.32881735e+01 1.27571333e+02 2.38411693e+01 1.07474283e+02
+ 8.77766968e+01 1.15791389e+01 8.60350179e+01 8.39713065e+01
+ 6.14477566e+01 9.06566734e+01 8.10052416e+01 9.11531190e+00
+ 7.75461171e+01 1.33731958e+01 1.14739645e+02 1.38161538e+02
+ 1.02092086e+02 5.26383917e+01 2.00275149e+01 1.28103346e+02
+ 4.14309076e+01 1.36354419e+02 1.12838019e+02 4.47679660e+01
+ 8.31398750e+01 7.49796793e+01 1.74465317e+01 1.46377947e+02
+ 1.42639793e+02 1.09226911e+02 1.98039545e+01 4.52485727e+01
+ 1.12083991e+02 3.93660206e-01 1.37773091e+02 1.73041336e+01
+ 6.34711438e+01 1.10679811e+02 1.16489342e+02 1.11540644e+02
+ 1.11324084e+01 2.00623430e-01 7.68601396e+01 9.46254578e+01
+ 5.05365965e+01 6.57595013e+00 8.02179769e+01 1.93612248e+01
+ 4.74772381e+01 1.26592543e+02 5.57957285e+01 6.31098054e+01
+ 1.45318637e+01 6.68502574e+01 7.06221876e+01 9.78367749e+01
+ 2.02468649e+01 6.41295374e+01 5.84897085e+01 1.27369368e+02
+ 1.29733685e+02 1.39329120e+02 7.42899767e+01 1.34361441e+02
+ 7.86773001e+01 9.76644463e+01 3.06145620e+01 7.28082756e+01
+ 3.19682734e+00 3.96902889e+01 1.19849979e+02 1.23319668e+02
+ 7.79647390e+00 1.17291998e+02 5.70215494e+01 2.50583921e+01
+ 2.08075603e+01 9.63271124e+01 4.84136577e+01 1.07055597e+02
+ 1.40264981e+02 1.22571811e+02 1.15087576e+02 1.13274256e+02
+ 1.09541700e+02 1.14012139e+02 5.36944174e+00 5.74644508e+01
+ 4.04904143e+01 1.01170273e+01 2.40406446e+01 9.64411577e+01
+ 1.42904593e+01 4.69121246e+01 9.04657611e+01 3.04747974e+01
+ 1.44369821e+01 2.79929439e+00 3.82529409e+01 1.40930243e+02
+ 1.46077721e+02 3.93104247e+01 6.20840877e+01 1.06686471e+02
+ 3.74663331e+01 7.97379182e+01 8.82194542e+01 1.13431862e+02
+ 7.63399349e+01 1.39432920e+02 1.07652891e+02 1.16311450e+02
+ 6.76994106e+01 1.46195792e+02 1.11757688e+02 9.61137496e+01
+ 1.21108268e+01 7.09093888e+01 1.25017001e+02 6.92193110e+00
+ 7.24384326e+01 1.42871520e+02 1.75106123e+01 5.13716418e+01]</t>
         </is>
       </c>
     </row>
@@ -540,8 +2031,256 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[ 4.29182702 17.41102057  4.0453165  ... 19.09496077  4.48320089
- 13.69261279]</t>
+          <t>[1.65311502e+01 4.86936568e+00 1.21898050e+01 9.97393316e+00
+ 2.74526093e+00 9.17616606e+00 8.75355297e-01 1.46003274e+01
+ 1.39159473e+01 1.61487445e+00 3.99843393e+00 1.03681182e+01
+ 1.00972507e+00 5.70549388e+00 1.93936627e+01 1.27017543e+01
+ 2.44444686e+00 1.77138247e+00 1.22620022e+01 1.83841342e+01
+ 1.91249355e+01 7.36824580e+00 1.46184736e+01 6.08898574e+00
+ 7.83977717e+00 1.57516858e+01 8.44317053e+00 1.59464422e+01
+ 5.94692015e+00 8.21675644e+00 1.85405625e+01 3.57114701e+00
+ 5.68567998e-01 5.16966508e+00 9.56165418e+00 1.66908749e+01
+ 1.15954520e+01 7.97539071e+00 7.50433558e+00 1.92151248e+01
+ 2.09234804e+00 1.95961036e+01 2.16201567e+00 8.02794998e+00
+ 1.12548231e+01 1.34707906e+01 1.75677554e+01 1.06216874e+01
+ 1.01164550e+01 8.84127987e+00 1.33468696e+01 8.89484794e+00
+ 8.66706810e+00 1.75111989e+01 1.90266187e+01 2.62693435e+00
+ 9.62698419e+00 1.48941243e+01 1.70151227e+01 9.10195185e+00
+ 1.14672956e+01 9.81081721e+00 5.66454041e+00 1.81440665e+01
+ 5.84170792e+00 4.93672780e+00 1.59766810e+01 1.19087351e+01
+ 1.91337311e+00 7.57877677e+00 4.44919805e+00 1.75033744e+01
+ 1.38614771e+01 1.37267623e+00 6.95667866e+00 1.15676242e+01
+ 1.16670510e+01 5.51391446e+00 1.48100045e+01 7.45392224e+00
+ 1.48649186e+01 6.98223083e+00 1.25389506e+01 1.33277588e+00
+ 1.11475547e+01 1.08500090e+01 1.44537326e+01 9.27509006e-01
+ 1.92599218e+01 2.94038644e+00 1.54796110e+00 1.22790743e+00
+ 1.44981144e+01 1.80796909e+01 1.39343330e+00 5.72708693e+00
+ 4.83608027e+00 1.20173257e+01 1.34161344e+01 3.09992919e+00
+ 6.52409289e+00 2.20801836e+00 1.03483221e+01 3.75305614e+00
+ 8.91515674e+00 4.11190355e+00 1.87358946e+01 7.04599439e+00
+ 5.68009762e+00 9.66894012e+00 1.78553646e+01 1.36512996e+01
+ 6.45452603e+00 8.79222677e+00 6.77114636e+00 1.08895542e+01
+ 1.60438856e+01 1.37357628e+01 1.93328852e+01 6.88530419e+00
+ 1.47110366e+00 1.32795507e+01 1.50816906e+01 1.53773146e+01
+ 7.92805801e+00 3.79365623e+00 1.97423863e+01 1.76411884e+01
+ 4.70856496e+00 1.13140068e+01 9.13703826e+00 1.72785217e+01
+ 1.33772170e+01 1.01782005e+01 6.81291879e+00 1.55242902e+01
+ 1.73379220e+00 1.28105942e+01 9.34776012e+00 6.49619820e+00
+ 9.00732864e+00 1.61033289e+01 1.00984784e+01 1.26632360e+00
+ 1.26757703e+01 8.74133028e+00 1.84454060e+00 1.13213449e+01
+ 1.42657420e+01 1.23642442e+01 3.69038942e+00 7.08860078e+00
+ 1.45579752e+01 2.61112842e+00 1.70750586e+00 1.18832573e+01
+ 1.75622276e+01 2.89995413e+00 1.05351163e+01 7.24819307e+00
+ 8.44183108e+00 3.70867104e+00 1.89859139e+01 1.97252023e+01
+ 1.99316357e+01 1.00593310e+01 5.03293851e+00 2.76267109e+00
+ 1.29610777e+01 1.58094272e+01 2.56981586e+00 5.45150570e+00
+ 1.50546993e+01 1.54430269e+01 2.06094717e+00 1.60117137e+01
+ 8.93901558e+00 1.19560869e+01 9.31168116e+00 1.94513351e+01
+ 1.07535203e+01 1.21422181e+01 1.58005489e+01 5.14711337e+00
+ 1.72264324e+01 1.49167049e+01 1.51845915e+01 3.01642716e+00
+ 1.48435137e+01 5.88564747e+00 9.02931348e+00 1.42848163e+01
+ 3.73839923e+00 1.11262254e+00 8.58580614e+00 1.11600106e+01
+ 8.52634019e+00 1.43294610e+01 1.73420830e+01 1.67171636e+01
+ 1.96575568e+01 1.58350081e+01 1.35675091e+01 6.71264351e+00
+ 9.28904422e+00 1.13826316e+01 1.18466737e+01 1.71318595e+01
+ 8.55477308e+00 1.05761270e+01 1.71643700e+01 1.39884379e+01
+ 1.49496251e+01 3.43002565e-01 1.53249609e+01 1.86357686e+01
+ 1.58200072e+00 1.07808516e+01 1.45790081e+01 1.56056413e+01
+ 1.82882290e+00 1.61848034e+01 5.09192390e-01 1.19428958e+01
+ 9.95780250e+00 2.69085319e+00 1.82098795e+01 3.48796507e+00
+ 8.52217827e+00 1.93429818e+01 1.80993727e+01 1.59613948e+01
+ 1.89377471e+01 6.22072672e+00 4.89956481e-01 1.34873923e+00
+ 1.06933847e+01 8.31100211e+00 9.36982988e+00 9.76543806e+00
+ 7.67272973e+00 3.54461681e+00 7.25427927e-01 1.25273223e+00
+ 1.38782870e+01 3.13129106e+00 1.12078402e+01 1.88066496e+01
+ 8.12007719e-01 1.52057347e+01 7.69157043e+00 8.95561076e+00
+ 6.17102053e+00 3.90502454e+00 1.52810504e+01 7.21976988e+00
+ 1.56244122e+01 3.64303263e+00 5.31442422e+00 2.52433172e+00
+ 2.35667950e+00 1.43711112e+01 1.44270589e+01 7.90675766e+00
+ 2.64360569e+00 1.26288008e+01 1.08997322e+01 1.56336952e+01
+ 1.74493501e+01 1.99162724e+01 2.83105821e+00 2.95772490e+00
+ 8.25641327e+00 1.50270578e+01 1.46677422e+01 1.40039355e+01
+ 8.19960435e+00 1.68338315e+01 1.00168029e+01 8.69667936e+00
+ 1.27225449e+01 1.93658161e+01 1.74434180e+01 1.76467979e+01
+ 8.29946227e+00 1.70889675e+01 3.18716217e+00 1.42124386e+01
+ 2.07258510e-01 1.66303793e+01 1.69294663e+01 1.24700465e+01
+ 1.77600193e+01 6.11343774e+00 8.34012532e+00 2.22307437e+00
+ 1.23389272e+01 1.76113581e+01 4.38548192e+00 1.53017748e+01
+ 1.98431512e+01 1.33309488e+01 9.15972230e+00 1.98357251e+01
+ 1.32286595e+01 2.81178015e+00 1.87024118e+01 5.50244589e+00
+ 2.14649432e+00 1.14517997e+01 1.83374535e+01 3.20734048e+00
+ 1.04398081e+01 4.81433052e+00 1.92819876e+01 1.69690216e+01
+ 4.49940228e+00 9.64612807e+00 3.15254886e-01 1.16141576e+01
+ 1.83789932e+01 8.37531587e+00 1.48808059e+01 5.73378984e+00
+ 9.32812518e+00 1.20748689e+01 1.87219531e+01 1.23839922e+01
+ 1.07085058e+01 1.25754639e+01 5.12530655e+00 4.10012304e+00
+ 1.78038070e+01 8.09423915e+00 1.12597159e+01 3.14306966e+00
+ 1.91960284e+01 6.88103730e-01 1.40822624e+01 8.86784371e+00
+ 1.31945569e+01 3.23628961e+00 8.01558590e+00 4.92925334e+00
+ 1.70804840e+01 1.68899833e+01 7.64643375e+00 7.13142258e+00
+ 4.62726299e+00 1.77433513e+01 1.41106452e+01 1.96955088e+01
+ 1.77179772e+01 1.54700502e+01 3.04845956e+00 1.51582589e+01
+ 7.17644147e+00 4.67535450e+00 9.89623189e+00 3.32834397e-01
+ 1.82825511e+01 1.62211070e+01 4.22758878e+00 1.81710070e+01
+ 5.02759030e+00 5.99225008e+00 1.30880199e+00 1.64574844e+01
+ 1.57727207e+01 3.41059441e+00 7.29387090e+00 9.85701602e+00
+ 9.69318629e+00 6.68300332e+00 1.64067298e+01 7.01628420e-01
+ 1.55733651e+01 1.95397494e+01 1.69533477e+01 1.19806082e-01
+ 1.30126189e+01 8.16559816e+00 6.31035392e-01 1.92257560e-01
+ 9.04840253e+00 1.63579582e+01 1.58828516e+01 1.29212135e+01
+ 1.04914257e+01 1.11008216e+01 1.08315051e+01 4.76114116e-01
+ 1.05930443e+01 6.48332197e+00 1.75404619e+01 1.92248956e+01
+ 7.47621008e+00 3.08553897e+00 6.19062480e+00 7.40621506e+00
+ 1.07621258e+01 5.85367860e+00 1.56889991e+01 1.05106776e+01
+ 1.89785072e+01 8.26663569e+00 1.28345765e+00 1.67622798e+01
+ 6.78687671e+00 1.27661519e+01 1.36659125e+01 1.21324296e+01
+ 6.32586069e+00 6.62283562e+00 1.73868578e+01 2.40183981e+00
+ 8.49162231e+00 1.36298682e+01 9.62931301e-01 7.27376869e+00
+ 2.91989699e+00 4.48632952e+00 9.26782625e+00 9.98991745e+00
+ 1.08170540e+01 1.73803644e+01 1.79501306e+01 1.92512044e+00
+ 1.71764735e+01 4.60201920e+00 7.07092562e+00 7.22740452e+00
+ 1.98752150e+01 1.47366913e+01 1.54039993e+01 1.65859842e+01
+ 3.26627007e+00 1.38151824e+01 1.78645091e+01 7.59160108e+00
+ 1.37167411e+01 5.46990042e+00 8.61091411e+00 7.71641197e+00
+ 9.72853373e+00 1.93984203e+00 1.01404224e+01 5.95360316e+00
+ 3.30698545e+00 1.25952238e+01 6.37626575e+00 1.97949344e+00
+ 1.88939627e+01 8.57090037e+00 1.80474334e+01 1.83542361e+01
+ 1.47781802e+01 6.57778772e+00 9.91763284e+00 1.53371021e+01
+ 5.16132855e+00 1.67708896e+01 1.38050451e+01 1.17194563e+01
+ 5.07861168e+00 1.38935960e+01 5.54769342e+00 1.72886835e+01
+ 6.59046072e+00 1.11213576e+01 4.36591839e-01 3.06504546e+00
+ 9.71000915e+00 1.88697673e+01 1.18260803e+01 6.92240420e+00
+ 2.31370639e+00 6.53293670e+00 1.52132971e+01 1.67957802e+01
+ 1.55383004e+01 1.79368366e+01 1.14768679e+00 1.56487245e+01
+ 1.24378104e+01 1.95759411e+00 5.53875999e-01 3.57495112e+00
+ 1.43382269e+01 3.84478375e+00 3.61162926e+00 9.75053633e+00
+ 1.82556192e+01 1.09223884e+01 4.89471573e+00 7.54911764e+00
+ 8.36257004e+00 1.87575882e+01 1.96681773e+01 1.28180277e+01
+ 1.84833723e+01 6.56360786e+00 8.71397102e+00 7.00675639e+00
+ 2.37864371e+00 3.85333247e+00 1.35139151e+01 1.10367594e+01
+ 8.98546513e+00 2.84732957e+00 1.40277771e+01 1.83018426e+01
+ 2.91636584e-01 1.96148622e+01 4.65284133e+00 1.01971046e+01
+ 3.78854485e+00 6.69528960e+00 3.38451600e+00 8.39115420e+00
+ 1.86691498e+01 1.29383766e+01 1.86210072e+01 1.23113357e+01
+ 3.43173465e+00 9.56388227e-01 4.25841634e+00 6.15977390e+00
+ 1.48040445e+00 3.21411781e+00 1.45321957e+01 4.56956784e+00
+ 2.11942631e+00 4.78979768e+00 1.19186493e+01 3.96105582e+00
+ 1.90495873e+01 9.81322883e-01 1.42029456e+01 1.02367426e+01
+ 1.10919093e+01 1.32628933e+01 2.35418779e+00 1.58650548e-01
+ 1.63701956e+01 5.94077194e-02 3.45469070e+00 7.72813481e+00
+ 1.20968733e+01 5.34930252e+00 5.25651612e+00 1.52529050e+01
+ 6.03892362e+00 1.18077055e+01 8.23169539e+00 5.20057558e+00
+ 1.41471921e+01 1.17754361e+01 6.32964196e+00 1.09746527e-01
+ 1.14840762e+01 1.34985970e+01 1.34033264e+01 1.97866732e+01
+ 1.73788649e+00 1.90842462e+01 5.06895714e+00 1.62862173e+01
+ 1.80278575e+01 7.33118536e+00 8.07636634e+00 8.00078952e+00
+ 1.78191717e+01 9.87305380e+00 1.45135025e+01 1.01396073e+01
+ 1.39575567e+01 4.96310972e+00 4.41648308e+00 1.74806273e+01
+ 1.85749131e+01 1.04195501e+01 4.36426038e+00 4.15389558e+00
+ 9.55547719e+00 1.79224848e+01 1.27406182e+01 1.02164725e+01
+ 8.47386824e-02 1.60813251e+01 1.78937723e+01 1.95172532e+01
+ 4.08917694e-01 6.93042426e+00 1.79818138e+01 1.58918959e+01
+ 7.83469924e-01 1.30851495e+01 1.85968149e+01 4.74671460e+00
+ 1.83051575e+01 2.58528199e+00 6.23984496e+00 1.49707085e+01
+ 1.97174346e+01 5.60669705e+00 1.64737092e+01 5.29394525e+00
+ 1.25150396e+01 9.53740821e+00 1.24285454e+01 2.18542424e+00
+ 5.57487423e+00 1.09746077e+01 1.76691750e+01 8.41628666e-01
+ 5.28652891e+00 1.92782489e+01 1.51453815e+01 1.98085908e+01
+ 1.43870313e+01 1.91638098e+01 4.13958965e+00 2.67231741e+00
+ 3.50422770e+00 9.25132662e+00 1.40715736e+01 1.13373565e+00
+ 2.78737728e+00 6.43769353e+00 9.38309406e+00 1.50443767e+01
+ 1.84764777e+01 1.80099668e+01 4.52500297e+00 7.52181159e+00
+ 4.79711644e+00 8.75559131e+00 4.52573905e-01 1.14215179e+01
+ 3.81394308e+00 3.96005214e-01 1.17006122e+01 1.82298414e+01
+ 4.06711781e+00 8.84190078e-01 3.29219114e+00 3.98170254e+00
+ 7.54085916e+00 1.18755177e+01 7.75594743e+00 9.43164118e+00
+ 1.09857678e+01 5.55232552e+00 1.42488283e+01 1.93144709e+01
+ 1.18486201e+00 1.02763814e+01 1.33072698e+01 1.02575501e+01
+ 1.30160767e+01 3.34234522e+00 1.84584323e+01 8.97334874e+00
+ 7.80501463e+00 1.79290979e+00 2.11067112e+00 1.17807284e+01
+ 9.19554528e+00 4.53397181e+00 1.80424977e+00 8.05419367e+00
+ 1.80013942e+01 1.25001985e+01 3.76269499e-01 1.56123170e+00
+ 1.86604854e+01 1.37664723e+01 2.36658100e-01 4.27575690e+00
+ 6.39337184e-01 1.22892535e+01 1.28989319e+01 1.15913767e+00
+ 5.42266405e+00 1.42784587e+00 6.57493543e-03 1.87934925e+01
+ 7.61718939e+00 1.95760469e+01 3.92596753e+00 1.46973729e+01
+ 7.54325524e-01 1.08616864e+01 1.10398781e+01 7.77542891e+00
+ 2.88772133e+00 1.12969023e+01 1.46766558e+01 4.01199221e+00
+ 5.96846137e+00 8.12911311e+00 1.90630575e+01 1.31185809e+01
+ 1.65651166e+01 9.09732434e+00 1.34812862e+01 4.75220118e+00
+ 1.28790958e+01 6.35851479e+00 1.16174058e+01 8.77589864e+00
+ 9.49276583e+00 5.91126012e+00 1.66845613e+01 1.73055655e+01
+ 1.64235115e+01 1.68485102e+01 6.04952463e+00 6.27926913e+00
+ 6.83365775e+00 3.74273900e-02 1.50328422e+00 1.54250845e+01
+ 8.46671650e+00 1.94796200e+01 1.53515577e+01 4.21080703e+00
+ 1.28713173e+01 6.14197009e+00 3.32271230e+00 1.56775493e+01
+ 1.84063824e+01 1.88456973e+01 7.95238930e+00 4.72364361e+00
+ 1.27921240e+01 1.94118002e+01 7.11587401e+00 1.95430608e+01
+ 5.38908726e+00 5.44711838e+00 1.31648078e+01 7.78379321e-01
+ 1.36961411e+01 9.79830365e+00 1.14009642e+01 1.70361242e+01
+ 7.15860775e+00 8.63581176e+00 6.00888652e+00 1.68768539e+01
+ 1.48235215e+01 1.58519890e+01 9.92472292e+00 4.88545009e+00
+ 1.66629044e+01 1.88230493e+01 5.77541699e+00 1.68099243e+01
+ 8.14648206e+00 4.31644746e+00 3.44720555e+00 3.53072317e+00
+ 2.76332255e-01 5.09308384e+00 7.86222394e+00 1.11890701e+01
+ 1.20624140e+00 1.63242584e+00 5.80496219e+00 9.44663260e+00
+ 1.64374747e+01 1.22346166e+01 1.33610633e+01 7.31158644e+00
+ 1.89460721e+01 6.73940132e+00 6.99547876e+00 1.36069952e+01
+ 1.69254850e-01 5.21704783e+00 1.03834978e+01 1.06391203e+01
+ 1.09177485e+00 6.59157901e-01 1.07252769e+01 1.16826968e+01
+ 1.41545365e+01 3.00733100e+00 7.88376338e+00 1.67289137e+01
+ 1.62436212e+01 1.20149274e+01 6.26566620e+00 1.70025935e+01
+ 1.44340412e+00 1.15112931e+01 1.09533442e+01 8.85068449e+00
+ 8.41823061e+00 1.63073343e+01 6.89954124e+00 1.46340737e+01
+ 2.33520400e+00 1.20818633e+01 1.96346418e+01 2.55090232e+00
+ 1.24788986e+01 1.69101499e+01 2.28896471e+00 1.94830665e+01
+ 1.50084856e+01 1.90183907e+01 3.72229270e+00 1.59985669e+01
+ 2.86155175e+00 3.15717749e+00 1.85528080e+01 4.30392478e+00
+ 1.72177259e+01 1.91191910e+01 1.07575201e+00 3.35353838e+00
+ 4.33164174e+00 1.57242247e+01 9.21973012e+00 4.98036663e+00
+ 2.04561466e+00 1.30338981e+01 4.08622846e+00 1.89112652e+01
+ 1.49642219e+01 1.04061802e+01 4.04648463e+00 1.74157879e+01
+ 9.51705972e+00 1.42923720e+01 1.98864351e+01 1.81430824e+01
+ 2.43414394e+00 1.78439658e+01 1.17543620e+01 1.63357971e+01
+ 6.38928180e+00 1.67876509e+00 8.81695381e+00 1.73575725e+01
+ 1.25669447e+01 1.84337621e+01 1.54995274e+01 1.75994200e+01
+ 7.42782782e+00 7.35873663e+00 1.26489210e+01 1.10777370e+01
+ 1.62932662e+01 1.24077003e+01 1.10133278e+01 1.20364727e+01
+ 5.00830947e+00 1.87714685e+01 1.19931716e+01 1.66210450e+01
+ 9.06826431e+00 1.05995673e+01 6.97300231e-02 1.81944374e+01
+ 5.34886971e+00 1.37786707e+01 1.04725059e+01 9.42070802e+00
+ 1.94352805e+01 5.64143597e+00 1.66016889e+01 1.22107178e+01
+ 1.13397363e+01 9.58518248e+00 7.89419455e+00 1.05574434e+01
+ 1.34505099e+01 7.78654708e+00 1.13705631e+01 1.15476054e+01
+ 1.72006289e+01 1.40473997e+01 1.31344448e+01 1.23205507e+01
+ 7.63304069e+00 6.64301871e+00 1.59115172e+01 1.12286995e+01
+ 1.41301362e+01 6.30347689e+00 5.84808770e-01 1.32404125e+01
+ 1.03209786e+01 1.52387429e+01 8.65164917e+00 9.12636344e-01
+ 1.76960495e+01 3.66912881e+00 1.35421612e+01 1.15265927e+01
+ 1.65092118e+01 1.60588615e+01 1.65017410e+01 5.61179950e+00
+ 6.65234726e+00 3.62163370e+00 1.63831769e+00 1.71184828e+01
+ 1.06674316e+01 6.85751229e+00 1.02829135e+01 1.81182486e+01
+ 1.62562981e+01 1.02324489e+00 2.72410077e+00 1.97742257e+01
+ 2.46597601e+00 6.00049330e-01 9.83891269e+00 1.44492954e+01
+ 5.90378895e+00 8.32006515e-01 1.72595519e+01 1.70496273e+01
+ 1.61622470e+01 1.87540559e+00 1.21613218e+01 1.62030571e+01
+ 5.81049076e+00 1.44735848e+01 4.23711104e+00 2.51040905e+00
+ 1.22509526e+01 1.61207601e+01 6.40948130e+00 1.77842452e+01
+ 1.51294122e+01 1.44030791e+01 1.85049563e+01 4.63704336e+00
+ 5.24628553e+00 1.47660437e+01 1.36805092e+01 1.26703395e+01
+ 2.24455801e+00 1.05102462e+00 1.55571053e+01 1.30698482e+01
+ 4.18594238e+00 2.26022472e+00 1.91507387e+01 1.35821575e+01
+ 1.31081173e+01 1.99894501e+00 3.94246947e+00 1.50940603e+01
+ 1.66030916e+00 2.70749234e+00 1.57378655e+01 1.61388929e+01
+ 1.38427217e+01 1.89290356e+00 1.29939463e+01 5.40808009e+00
+ 1.39932538e+00 1.00307483e+01 1.39484741e+01 1.31809167e+01
+ 8.11865094e+00 7.02658684e+00 5.75513957e+00 6.07573893e+00
+ 2.48087252e+00 9.61044276e+00 6.76300645e+00 4.40634762e+00
+ 1.16381632e+01 1.03006674e+01 4.58452419e+00 4.46499221e+00
+ 1.54605391e+01 2.01963096e+00 1.53056395e+00 9.47357715e+00
+ 1.99534413e+01 7.18751253e+00 1.00662864e+01 7.40143902e+00
+ 2.98132803e+00 5.34649140e-01 1.28413145e+01 1.41873901e+01
+ 1.47193583e+01 9.24033236e+00 2.59399826e-01 3.87922667e+00]</t>
         </is>
       </c>
     </row>
@@ -553,8 +2292,256 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[11943.9923674    355.28237588 14657.75917873 ... 18418.36285896
- 13998.26436128  5515.82170663]</t>
+          <t>[1.50401217e+04 7.80792476e+03 4.05882787e+02 1.36436754e+04
+ 2.47392627e+03 1.46012614e+04 4.33294332e+03 1.84300029e+04
+ 1.39775645e+04 8.69505338e+03 2.77244152e+02 4.96160808e+03
+ 2.90916693e+03 9.40685985e+03 1.51720570e+04 7.82566086e+03
+ 1.95448392e+04 5.20220905e+03 8.86312292e+03 2.55468915e+03
+ 1.08453851e+04 3.43490068e+03 1.60004882e+04 1.49398306e+04
+ 8.83837501e+03 1.55522115e+04 7.73565166e+03 1.13518238e+04
+ 1.22985083e+04 1.76957943e+04 1.53676586e+04 1.73089625e+04
+ 1.09138888e+04 7.56536258e+03 1.79043470e+04 1.48341534e+04
+ 6.54336411e+03 4.87877133e+03 1.33224490e+04 6.85612211e+03
+ 1.23556288e+04 9.41168633e+03 1.56989380e+04 3.91349705e+03
+ 1.77762763e+04 1.83338431e+04 3.70405088e+03 1.22683836e+04
+ 1.05168034e+04 1.97504128e+04 1.57673231e+04 1.77847538e+04
+ 3.22416186e+02 6.03258998e+03 1.08978409e+04 2.99682778e+02
+ 8.85926277e+02 7.52151515e+03 1.05514678e+04 1.82762139e+04
+ 1.26202663e+04 6.27406568e+03 7.45365112e+03 4.84444968e+03
+ 1.48938314e+04 2.21639669e+03 1.68751644e+04 8.98130722e+03
+ 1.12832398e+04 5.27586599e+03 1.34271949e+04 1.54865725e+04
+ 5.24144561e+03 9.93412447e+03 1.03301715e+04 1.56177091e+04
+ 3.29325987e+03 1.99307763e+04 1.68851196e+03 9.56306382e+03
+ 1.38354717e+04 1.48589826e+04 1.19880458e+04 3.25524144e+03
+ 4.92267951e+03 5.33634536e+03 1.46225469e+04 1.11576313e+04
+ 7.68849721e+03 1.72230425e+04 7.16357171e+03 1.74614625e+04
+ 2.06937231e+03 1.24151353e+04 1.83418721e+04 1.38679784e+04
+ 1.64806567e+04 5.85290419e+03 9.06011949e+03 1.52427045e+04
+ 8.04768071e+03 1.99464264e+04 1.07646715e+04 1.30597872e+04
+ 6.05868945e+03 1.26785721e+04 6.99015744e+03 8.53477190e+03
+ 7.90434339e+03 1.51298907e+03 9.92544677e+03 5.33308486e+03
+ 7.48362085e+03 7.57680801e+03 1.01243477e+04 4.80250740e+03
+ 1.64296114e+04 4.57694471e+02 1.42163008e+04 1.46881278e+04
+ 1.21993589e+04 1.49501550e+04 8.33084326e+00 1.73881533e+04
+ 1.56597541e+04 8.41965794e+03 5.07757232e+03 5.56719704e+03
+ 6.35957815e+03 1.34954406e+04 1.65476273e+04 1.08017926e+04
+ 6.71897269e+03 6.88058181e+03 5.48343747e+01 1.22624741e+04
+ 6.16503291e+03 1.06882891e+03 1.96205879e+04 1.50839343e+04
+ 1.95737881e+04 1.16103824e+04 1.91226335e+04 5.49505918e+03
+ 1.18042433e+04 1.25870509e+04 6.22552871e+03 1.10281492e+04
+ 1.29735863e+04 1.56612925e+02 2.79519172e+03 5.78129552e+03
+ 1.42252488e+04 1.14322053e+04 3.52500531e+03 2.87295845e+03
+ 9.51526690e+03 1.60044051e+04 1.17711199e+03 1.20232913e+04
+ 1.94354338e+04 4.44192403e+03 7.25405976e+03 1.71899004e+03
+ 2.81495563e+03 1.24657241e+03 1.58116662e+04 1.85831278e+04
+ 1.54595001e+04 3.46722266e+03 1.02380931e+04 1.33997146e+03
+ 4.70801753e+03 9.76255289e+03 1.02240559e+04 1.79257342e+04
+ 1.12502949e+04 6.80987073e+03 9.47235022e+03 5.11851977e+03
+ 1.67567284e+04 6.77934019e+03 1.08225983e+04 5.14647477e+03
+ 8.43798244e+03 4.48605440e+03 1.53880909e+04 7.92468468e+03
+ 1.58285352e+04 1.52754329e+04 6.81344185e+03 1.14880614e+04
+ 5.42902408e+03 1.65285680e+04 1.08689078e+04 4.34405826e+03
+ 7.22890017e+03 4.21999222e+02 5.96449113e+03 1.75399969e+04
+ 1.32015691e+04 4.20555742e+03 1.72528020e+04 7.87273414e+03
+ 5.89175176e+03 3.95713752e+03 1.71243157e+04 1.97086073e+04
+ 1.16758276e+04 5.77196238e+03 1.87494372e+04 3.78450962e+03
+ 1.63372751e+04 8.21468065e+03 1.47231633e+04 1.48640870e+04
+ 9.23256918e+03 1.66903922e+04 7.42851491e+03 1.70060178e+04
+ 1.98995887e+04 1.91306024e+03 1.94864704e+04 1.93778519e+04
+ 7.76529190e+03 4.10015325e+03 1.55174471e+04 1.40386952e+03
+ 6.14185349e+03 5.00136664e+03 1.39418208e+04 1.92339526e+04
+ 1.94514051e+04 4.77700218e+03 8.23338920e+03 1.29516170e+03
+ 1.44712354e+04 9.79134928e+03 7.10753002e+03 1.17437425e+04
+ 8.70273103e+02 1.90423398e+04 1.54394921e+04 1.98882516e+04
+ 9.82081636e+03 9.03594691e+03 7.39715018e+03 1.23926202e+04
+ 8.18994760e+03 1.85402662e+04 1.65069575e+04 6.50067556e+03
+ 2.63378530e+03 1.00828664e+04 1.44446224e+04 1.35541950e+04
+ 1.13685772e+04 2.83884578e+03 6.33022886e+03 8.93181823e+03
+ 6.53102145e+03 1.86946169e+04 1.70782786e+04 6.57409196e+03
+ 1.74537624e+04 4.01170254e+03 1.17776847e+04 1.52291427e+04
+ 1.80136155e+03 1.59325459e+04 6.30820710e+03 2.37870458e+03
+ 1.76289554e+04 1.02977763e+04 1.60932294e+04 1.87227247e+04
+ 1.68814726e+04 7.93744300e+03 1.55432843e+03 1.82491987e+04
+ 1.79507498e+04 1.78614841e+02 3.18763791e+03 2.34415772e+03
+ 2.56166410e+03 1.05762986e+03 1.27272206e+04 2.13816527e+03
+ 8.26345490e+03 2.00146019e+03 1.71789704e+04 3.02600835e+03
+ 1.32227742e+04 1.01057990e+04 1.10504221e+04 7.72526102e+03
+ 1.43858881e+04 1.00410721e+04 1.09949240e+04 1.40847832e+04
+ 1.87827183e+04 3.33768107e+03 7.45908854e+01 3.17057362e+03
+ 6.26581349e+03 1.45097518e+03 1.74092603e+04 4.85604065e+03
+ 1.06608120e+04 1.41712268e+04 1.23794689e+03 1.67916225e+04
+ 1.29327850e+04 8.40957116e+03 1.93110766e+04 6.46556811e+03
+ 4.52672729e+03 3.48608941e+03 5.02314876e+03 1.87588776e+04
+ 1.26524510e+04 1.30156806e+04 1.17128405e+04 1.54631176e+04
+ 1.45428456e+04 4.26331637e+03 1.18361144e+04 1.22115082e+04
+ 2.96425563e+03 1.67234689e+04 1.98549687e+04 1.31807928e+04
+ 6.75389129e+03 1.46592767e+04 6.34153977e+03 1.76675394e+04
+ 5.29886115e+03 1.12179752e+04 5.37741388e+03 1.15515353e+04
+ 1.20975845e+04 4.28266985e+03 1.24815933e+04 3.04352452e+03
+ 3.44386272e+03 3.11666491e+03 1.09811777e+04 1.51482532e+04
+ 1.83868780e+04 1.02880515e+04 6.97194723e+03 4.50257379e+03
+ 1.53321475e+04 1.89496425e+04 4.75829778e+02 1.83114216e+03
+ 1.28282054e+04 1.90035548e+04 8.08000626e+03 1.21427606e+04
+ 1.45597640e+04 3.27239522e+03 1.31291490e+04 1.73217987e+04
+ 1.74650378e+03 1.05453307e+04 1.01627635e+04 9.02432375e+03
+ 1.55238504e+04 1.57749459e+03 8.11886939e+03 1.42715812e+04
+ 7.50190914e+03 7.07622688e+03 1.47198381e+04 1.60690689e+04
+ 9.46144803e+03 1.39217242e+04 1.93964321e+03 4.94195049e+03
+ 1.50162586e+04 1.81980695e+04 3.01019167e+03 3.84292538e+03
+ 1.38166117e+04 4.72709697e+03 1.24336842e+04 7.32580901e+03
+ 1.55625275e+04 1.58709154e+04 1.51836171e+04 1.16504995e+04
+ 1.36999270e+04 1.20683521e+03 8.45614163e+03 9.27913622e+03
+ 2.39629078e+02 1.43377533e+04 1.89963833e+04 2.74351869e+03
+ 1.07707976e+04 1.09481528e+04 8.73894637e+03 1.28626787e+04
+ 1.53530694e+04 3.14436266e+03 1.58895303e+04 2.16098484e+03
+ 1.37436935e+03 6.44010613e+03 3.40333367e+03 1.69215306e+04
+ 1.77317596e+04 2.24279357e+03 8.96269387e+03 2.23001777e+03
+ 1.92176028e+03 5.63305133e+03 2.59033117e+03 9.10364245e+02
+ 1.37865241e+04 1.09945237e+03 1.68583822e+04 4.40447944e+03
+ 1.78834257e+04 1.23268815e+04 3.36115399e+03 1.52076193e+04
+ 1.92040038e+04 4.54504364e+03 9.32405918e+03 1.59134557e+04
+ 5.54441120e+03 1.88663395e+04 8.92908114e+03 1.18256756e+04
+ 1.88158196e+04 4.37938304e+03 1.62300126e+04 1.51360050e+04
+ 2.29916355e+03 1.41401475e+04 1.30255391e+03 1.92697439e+04
+ 1.91024684e+04 3.88666746e+03 4.62707280e+03 7.30186742e+02
+ 1.57992244e+03 1.93370988e+04 1.77456489e+04 1.89177551e+04
+ 9.72895342e+03 2.50360633e+03 7.62069336e+03 2.52087416e+03
+ 3.77002340e+03 1.88309644e+04 6.62911707e+03 6.09789493e+03
+ 4.66971299e+03 6.91640345e+03 8.61759679e+03 1.50645068e+04
+ 4.46676719e+03 1.93508698e+04 5.58329577e+02 2.66296603e+03
+ 6.23980597e+02 3.39130107e+03 1.33705676e+04 1.12332935e+04
+ 1.99275787e+03 1.13957561e+04 1.85595039e+04 2.94215142e+03
+ 5.51733055e+03 2.04714155e+03 1.27637910e+04 6.63768840e+02
+ 6.99567133e+02 8.55116949e+03 1.00644085e+04 4.11678416e+03
+ 5.41186306e+03 8.47444815e+03 1.17543234e+04 6.73548477e+03
+ 4.58085710e+03 1.18620162e+04 1.26965668e+04 1.76505771e+04
+ 1.32278261e+02 1.79461042e+03 1.32639450e+04 5.92939987e+02
+ 6.41672828e+03 7.29896167e+03 4.05174207e+03 1.65741278e+04
+ 7.70750474e+03 6.81629625e+02 6.59316643e+03 3.33175037e+03
+ 3.96293921e+02 2.10036928e+03 1.04055435e+04 1.16981907e+04
+ 6.19501188e+03 9.66401145e+03 1.88531318e+04 1.62000830e+04
+ 1.75989876e+04 3.50016117e+03 4.06533909e+03 1.91638720e+04
+ 1.29976171e+04 1.67135697e+04 1.80892126e+04 9.76012688e+02
+ 8.37741113e+03 1.78709076e+04 1.33752063e+03 1.84893538e+04
+ 1.91380961e+04 5.93282363e+03 5.11192537e+03 4.74341113e+03
+ 3.66928185e+03 1.31221141e+04 9.66988502e+03 2.40013444e+03
+ 2.65164025e+03 1.14232517e+04 1.44137954e+04 1.42506817e+04
+ 1.28097117e+04 1.44948161e+04 7.01590796e+03 1.89775462e+04
+ 3.69116868e+03 7.99856711e+03 7.83499364e+03 8.05172775e+02
+ 1.33370969e+04 5.79713621e+03 1.46252420e+04 1.78302235e+04
+ 2.44512704e+03 1.37389836e+04 1.20793163e+04 1.71903360e+04
+ 1.55946504e+04 1.61730230e+04 5.35649059e+03 1.94090810e+04
+ 2.83504255e+03 5.69126321e+03 4.18063151e+03 1.79948689e+04
+ 1.64448282e+04 7.85613421e+02 1.98121856e+04 1.28042648e+04
+ 3.22760205e+03 1.85384399e+04 6.93541552e+03 1.57333785e+04
+ 1.57891912e+04 3.59249822e+03 1.03178639e+04 1.49679373e+03
+ 1.71065018e+04 6.89574300e+03 1.74951935e+04 7.95364649e+03
+ 1.98217599e+04 1.84532263e+04 7.04304947e+03 1.29228686e+04
+ 6.67048340e+03 1.28787694e+04 7.54453526e+03 1.41945316e+04
+ 9.29737473e+03 1.45739684e+04 1.04539606e+04 1.95912441e+04
+ 1.40435940e+04 6.07754540e+03 1.47434622e+03 1.13020561e+04
+ 1.36807286e+04 1.34011343e+04 1.78035842e+04 1.49746579e+04
+ 6.04978514e+02 1.44329164e+04 1.64906483e+04 1.28864026e+04
+ 1.63658838e+04 8.20366075e+03 1.50518854e+04 1.86567984e+04
+ 1.34830166e+04 3.72960757e+03 5.07249695e+03 9.26539196e+03
+ 1.68151100e+04 3.75273062e+03 1.02615514e+04 8.99213115e+03
+ 1.69099662e+04 1.57609234e+04 1.06089892e+04 8.27735913e+03
+ 1.59771313e+04 1.62029091e+04 8.75906908e+03 1.21110397e+04
+ 1.73470484e+04 1.11272332e+04 7.27542220e+03 1.90331420e+04
+ 1.69828356e+04 3.05938722e+03 3.46482687e+02 1.77632416e+03
+ 1.86986713e+04 1.37540792e+04 1.19235121e+03 1.72145458e+04
+ 4.25125941e+03 1.70520353e+04 1.09444825e+04 5.86634269e+03
+ 8.64132958e+03 1.18781998e+04 1.05757665e+04 1.27697334e+04
+ 1.37052477e+04 1.20512643e+04 9.18858077e+03 9.58591592e+03
+ 1.98592795e+04 5.26767413e+03 8.52864095e+03 2.71162979e+03
+ 9.20827722e+03 7.63865185e+03 1.38888562e+04 1.97923211e+04
+ 1.86589591e+04 4.15404328e+03 1.72628761e+04 9.07354590e+03
+ 1.35930992e+04 1.00862941e+03 1.95281785e+04 1.58602143e+04
+ 1.67699631e+04 4.23153453e+03 7.05426920e+03 9.44059018e+03
+ 7.34019248e+03 1.25824849e+04 1.86172363e+04 1.71479630e+04
+ 9.71533696e+03 1.24557458e+04 4.91202041e+03 9.36565716e+03
+ 1.76020373e+04 6.24985994e+03 1.43729994e+04 1.67263916e+03
+ 1.82868297e+04 9.16293825e+03 1.11194640e+04 1.75066822e+04
+ 6.04513227e+03 1.02025308e+02 2.27542478e+03 1.27128620e+04
+ 1.54143927e+04 9.20064181e+02 1.35839919e+04 1.73766232e+04
+ 1.01815486e+04 9.22639110e+03 2.76463550e+03 1.62987850e+03
+ 9.61139763e+03 3.83287898e+03 1.18923907e+04 1.05986768e+04
+ 5.65937584e+03 1.87888090e+03 4.37043386e+03 1.35276600e+04
+ 1.11879248e+04 5.73877020e+03 5.82469040e+03 5.06502599e+02
+ 3.30625346e+03 1.00007954e+04 1.42855183e+04 5.90024051e+03
+ 2.60612815e+03 5.93840342e+03 2.43621559e+03 7.35603220e+03
+ 8.58925095e+02 1.62686488e+04 7.24487137e+03 9.64043825e+03
+ 1.96380668e+04 1.64015695e+04 1.83922276e+03 7.72430829e+02
+ 7.66360280e+03 8.06274524e+03 1.78470196e+04 1.66348286e+04
+ 2.89044276e+03 9.33669507e+03 2.49277147e+03 1.11054750e+04
+ 4.16981527e+03 1.85058045e+04 5.47896720e+03 1.70378820e+03
+ 3.19844986e+03 1.92555575e+04 1.70250855e+04 3.68968596e+02
+ 1.63022434e+04 9.82953636e+03 1.03842115e+04 1.14568426e+04
+ 1.94660506e+04 5.46489121e+03 2.37233198e+03 3.60500203e+03
+ 1.36073062e+04 8.66162413e+03 1.77104560e+04 1.14243499e+03
+ 1.52864223e+04 1.14773026e+04 1.36556388e+04 1.75665611e+04
+ 1.60283592e+04 8.34940230e+03 1.96736799e+04 9.37991369e+03
+ 1.23822404e+04 9.10328940e+03 1.82168590e+04 5.22955321e+03
+ 1.31585753e+04 1.47603714e+04 7.37987227e+03 1.75392664e+04
+ 1.34489738e+04 2.06996293e+02 7.12025521e+03 1.81698581e+04
+ 9.78279217e+03 5.67039075e+02 1.97700658e+04 4.99353027e+03
+ 1.62428266e+04 2.09503129e+03 9.60190487e+03 1.62990480e+04
+ 7.14159138e+03 1.81241758e+04 1.07004139e+04 1.25028616e+04
+ 8.78554164e+03 8.52798218e+01 1.69683743e+04 8.72508596e+03
+ 9.53799085e+02 1.29589182e+04 1.63426684e+04 1.13366643e+04
+ 8.58065781e+03 9.69922860e+03 8.60899457e+03 2.18311626e+03
+ 8.88991666e+03 1.37762376e+04 5.15498811e+03 5.18651370e+03
+ 1.70927098e+04 3.57095394e+03 1.66797384e+04 5.45243291e+03
+ 1.61508222e+04 6.48002290e+03 1.80412150e+04 1.16010141e+04
+ 1.56290631e+04 5.59616760e+03 8.16278590e+03 1.80143048e+04
+ 1.26402692e+04 1.00095065e+04 6.12024821e+03 1.81142989e+04
+ 1.39061961e+03 1.60451777e+04 1.97685984e+03 1.32655290e+04
+ 1.86356391e+04 8.35040902e+03 1.04798077e+04 1.15336954e+04
+ 1.11718674e+04 1.19437284e+04 7.18920424e+03 1.27134560e+03
+ 1.15766156e+04 1.15157656e+04 1.68391145e+04 1.20417504e+04
+ 1.83008953e+04 1.39879530e+04 1.07471105e+04 8.10843791e+03
+ 7.77433986e+03 4.68473130e+03 7.48937529e+02 1.53095028e+04
+ 1.95000222e+04 8.87684649e+03 7.86244485e+03 1.35095741e+04
+ 6.55926818e+03 1.49075854e+04 6.56041005e+02 7.21052669e+03
+ 4.77277369e+03 1.06387179e+04 1.46801963e+04 2.29280414e+03
+ 1.48027049e+04 8.79852358e+03 5.64073744e+03 1.66092298e+04
+ 1.84710281e+04 1.33043498e+04 9.49875517e+03 9.14073135e+03
+ 1.72924561e+04 1.45185464e+04 8.67536928e+03 2.93448300e+03
+ 8.13315763e+03 3.79681344e+03 1.99698501e+04 1.84032403e+04
+ 6.70509908e+03 1.61041602e+04 1.19250784e+04 1.03651535e+04
+ 1.69484359e+04 1.96053861e+04 1.81174641e+02 9.95691894e+03
+ 5.28030173e+02 1.86223011e+03 1.01370941e+04 5.57786189e+03
+ 1.41153269e+04 5.98227139e+03 7.00925573e+03 3.08513293e+03
+ 1.61274197e+04 9.11034847e+03 1.52958856e+03 4.42463156e+03
+ 6.37662975e+03 1.42152759e+03 8.01096320e+03 1.40130495e+04
+ 1.90725513e+04 2.72019451e+03 4.95181123e+02 4.56473619e+03
+ 3.99357881e+03 3.64210780e+03 6.83513531e+03 3.86048121e+03
+ 5.70077822e+03 1.59568283e+04 4.02916353e+03 1.01945464e+04
+ 1.93756663e+04 2.12638720e+03 1.65884037e+04 1.89196937e+04
+ 7.98241217e+03 1.60622707e+03 7.43185204e+03 1.91809321e+04
+ 1.88820086e+04 5.72264613e+03 8.30920171e+03 9.98820472e+03
+ 1.79608031e+04 1.19829303e+04 3.94182278e+01 1.41553950e+04
+ 1.47774299e+04 1.33622674e+04 1.43228260e+04 1.04319055e+04
+ 1.21639578e+04 1.48125579e+04 6.00451304e+03 2.32021356e+03
+ 1.07164040e+04 1.08594717e+04 1.81464362e+04 1.03233608e+03
+ 1.64188824e+03 4.61278638e+03 1.19466995e+04 1.22422367e+04
+ 9.90575440e+03 3.94347565e+03 3.92543039e+03 1.34067546e+04
+ 1.74301190e+04 4.31288681e+03 1.21723438e+04 3.09681722e+03
+ 8.49339902e+03 1.04144173e+04 1.82199513e+04 1.40816421e+04
+ 1.13132494e+04 1.96939240e+04 4.08028649e+03 9.53824133e+03
+ 1.90874586e+04 1.49926116e+04 7.61085863e+03 1.31046470e+04
+ 1.16400265e+04 1.51048421e+04 1.80333089e+04 1.10705859e+04
+ 8.32515934e+03 6.40543376e+03 9.85173205e+03 1.97244217e+04
+ 1.23196845e+04 2.84712106e+02 1.56676506e+04 4.82283585e+03
+ 1.06821932e+04 1.25330087e+04 1.30406517e+04 9.82606317e+02
+ 4.63709545e+03 5.04811682e+03 1.43509474e+04 1.38564364e+04
+ 8.20096919e+02 2.68328748e+03 1.25627420e+04 1.66567576e+04
+ 1.30725035e+04 2.48362219e+02 1.11957733e+03 1.05015663e+04
+ 1.40595029e+04 1.09212051e+03 6.68372016e+03 6.17825909e+03
+ 3.63316253e+03 1.63945157e+04 1.80787009e+04 9.88309751e+03
+ 2.02208350e+03 1.39490778e+04 1.83763621e+04 3.54841750e+03
+ 1.25112542e+04 2.97814779e+03 8.82405902e+03 6.63315927e+03
+ 1.32321350e+04 1.92910793e+04 1.57081392e+04 1.10158251e+04]</t>
         </is>
       </c>
     </row>
